--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -91,52 +91,49 @@
     <t>ratings_2k</t>
   </si>
   <si>
+    <t>calc_over_prob</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
     <t>Detroit</t>
   </si>
   <si>
-    <t>LAClippers</t>
-  </si>
-  <si>
     <t>Chicago</t>
   </si>
   <si>
-    <t>Brooklyn</t>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
   </si>
   <si>
     <t>SanAntonio</t>
   </si>
   <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>LALakers</t>
-  </si>
-  <si>
-    <t>NewYork</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>GoldenState</t>
-  </si>
-  <si>
-    <t>OklahomaCity</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
+    <t>Memphis</t>
   </si>
 </sst>
 </file>
@@ -494,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,8 +573,11 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -585,67 +585,76 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>225</v>
-      </c>
-      <c r="E2">
-        <v>8099286</v>
+        <v>230</v>
       </c>
       <c r="F2">
-        <v>113.175429726997</v>
+        <v>114.722479185939</v>
       </c>
       <c r="G2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="J2">
-        <v>0.5560975609756098</v>
+        <v>0.5171717171717172</v>
       </c>
       <c r="K2">
-        <v>98.31081900910009</v>
+        <v>98.42509250693803</v>
       </c>
       <c r="L2">
-        <v>114.1428715874621</v>
+        <v>115.8052728954672</v>
       </c>
       <c r="M2">
-        <v>116.2273761375126</v>
+        <v>114.4395004625347</v>
       </c>
       <c r="N2">
-        <v>75.71311931243679</v>
+        <v>77.55603607770584</v>
       </c>
       <c r="O2">
-        <v>0.3824759858442871</v>
+        <v>0.4198704902867715</v>
       </c>
       <c r="P2">
-        <v>0.5629711830131447</v>
+        <v>0.5908640148011101</v>
       </c>
       <c r="Q2">
-        <v>0.3002692113245703</v>
+        <v>0.2783799722479186</v>
       </c>
       <c r="R2">
-        <v>11.67899393326593</v>
+        <v>12.37654949121184</v>
       </c>
       <c r="S2">
-        <v>11.77815975733064</v>
+        <v>11.5350138760407</v>
       </c>
       <c r="T2">
-        <v>0.2264265672396359</v>
+        <v>0.2105568917668825</v>
       </c>
       <c r="U2">
-        <v>0.9936385401843456</v>
+        <v>1.005455558158974</v>
       </c>
       <c r="V2">
-        <v>1.02969706452677</v>
+        <v>1.038430802510143</v>
       </c>
       <c r="W2">
-        <v>11.68878638026398</v>
+        <v>10.46283211763107</v>
+      </c>
+      <c r="X2">
+        <v>0.557123034227567</v>
+      </c>
+      <c r="Y2">
+        <v>40.5</v>
+      </c>
+      <c r="Z2">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.4936169592900065</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -653,67 +662,76 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>221.5</v>
-      </c>
-      <c r="E3">
-        <v>18126939</v>
+        <v>236</v>
       </c>
       <c r="F3">
-        <v>109.2121212121212</v>
+        <v>112.2164855072464</v>
       </c>
       <c r="G3">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3">
-        <v>0.4431818181818182</v>
+        <v>0.5372340425531915</v>
       </c>
       <c r="K3">
-        <v>97.88955627705627</v>
+        <v>98.93817934782609</v>
       </c>
       <c r="L3">
-        <v>111.024512987013</v>
+        <v>112.646240942029</v>
       </c>
       <c r="M3">
-        <v>115.465367965368</v>
+        <v>115.878125</v>
       </c>
       <c r="N3">
-        <v>76.39507575757575</v>
+        <v>76.05253623188406</v>
       </c>
       <c r="O3">
-        <v>0.3974523809523809</v>
+        <v>0.4087871376811594</v>
       </c>
       <c r="P3">
-        <v>0.5611109307359309</v>
+        <v>0.5646467391304347</v>
       </c>
       <c r="Q3">
-        <v>0.2842900432900433</v>
+        <v>0.2813088768115942</v>
       </c>
       <c r="R3">
-        <v>13.41580086580086</v>
+        <v>12.52803442028986</v>
       </c>
       <c r="S3">
-        <v>11.68452380952381</v>
+        <v>11.2513134057971</v>
       </c>
       <c r="T3">
-        <v>0.2122489177489177</v>
+        <v>0.2089909420289855</v>
       </c>
       <c r="U3">
-        <v>0.9588421528720036</v>
+        <v>0.9834924233763924</v>
       </c>
       <c r="V3">
-        <v>0.9904268292682927</v>
+        <v>1.01876925814006</v>
       </c>
       <c r="W3">
-        <v>10.89788037769227</v>
+        <v>11.46413181898958</v>
+      </c>
+      <c r="X3">
+        <v>0.4402173913043478</v>
+      </c>
+      <c r="Y3">
+        <v>41.5</v>
+      </c>
+      <c r="Z3">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>0.5349346164410206</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -721,67 +739,76 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>238</v>
-      </c>
-      <c r="E4">
-        <v>39292623.5</v>
+        <v>239.5</v>
       </c>
       <c r="F4">
-        <v>115.7245293466224</v>
+        <v>115.3787234042553</v>
       </c>
       <c r="G4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
       </c>
       <c r="J4">
-        <v>0.5368689733408962</v>
+        <v>0.531678486997636</v>
       </c>
       <c r="K4">
-        <v>100.249446290144</v>
+        <v>99.58307328605201</v>
       </c>
       <c r="L4">
-        <v>114.4070874861573</v>
+        <v>114.6597163120567</v>
       </c>
       <c r="M4">
-        <v>115.0600775193799</v>
+        <v>114.905011820331</v>
       </c>
       <c r="N4">
-        <v>77.04465669988925</v>
+        <v>76.71513002364065</v>
       </c>
       <c r="O4">
-        <v>0.4083330564784053</v>
+        <v>0.3341248226950354</v>
       </c>
       <c r="P4">
-        <v>0.590956533776301</v>
+        <v>0.5818765957446808</v>
       </c>
       <c r="Q4">
-        <v>0.2419017165005538</v>
+        <v>0.248455791962175</v>
       </c>
       <c r="R4">
-        <v>12.94363233665559</v>
+        <v>11.37695035460993</v>
       </c>
       <c r="S4">
-        <v>12.39772978959026</v>
+        <v>12.54451536643026</v>
       </c>
       <c r="T4">
-        <v>0.2062332502768549</v>
+        <v>0.2077384160756502</v>
       </c>
       <c r="U4">
-        <v>1.01601869487816</v>
+        <v>1.011207041229232</v>
       </c>
       <c r="V4">
-        <v>0.9554474545975149</v>
+        <v>1.09050101759209</v>
       </c>
       <c r="W4">
-        <v>11.29039968385036</v>
+        <v>10.71066028731968</v>
+      </c>
+      <c r="X4">
+        <v>0.4886524822695035</v>
+      </c>
+      <c r="Y4">
+        <v>44</v>
+      </c>
+      <c r="Z4">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>0.478910851199879</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -789,67 +816,76 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>230</v>
-      </c>
-      <c r="E5">
-        <v>12140852</v>
+        <v>234</v>
       </c>
       <c r="F5">
-        <v>115.5388542257516</v>
+        <v>112.4932065217391</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
       </c>
       <c r="J5">
-        <v>0.5212705615428247</v>
+        <v>0.4895833333333334</v>
       </c>
       <c r="K5">
-        <v>99.26072036301758</v>
+        <v>99.61326992753621</v>
       </c>
       <c r="L5">
-        <v>115.4482132728304</v>
+        <v>112.5564764492754</v>
       </c>
       <c r="M5">
-        <v>113.3429948950652</v>
+        <v>116.633786231884</v>
       </c>
       <c r="N5">
-        <v>73.57458876914349</v>
+        <v>74.7070652173913</v>
       </c>
       <c r="O5">
-        <v>0.3678037436188316</v>
+        <v>0.3866417572463768</v>
       </c>
       <c r="P5">
-        <v>0.592251843448667</v>
+        <v>0.5744692028985507</v>
       </c>
       <c r="Q5">
-        <v>0.247200510493477</v>
+        <v>0.2839759963768115</v>
       </c>
       <c r="R5">
-        <v>12.22163925127623</v>
+        <v>13.71272644927536</v>
       </c>
       <c r="S5">
-        <v>13.02178105501985</v>
+        <v>12.50629528985507</v>
       </c>
       <c r="T5">
-        <v>0.2108560692002269</v>
+        <v>0.2192010869565217</v>
       </c>
       <c r="U5">
-        <v>1.014388535783596</v>
+        <v>0.9859176732843044</v>
       </c>
       <c r="V5">
-        <v>0.9742526722571291</v>
+        <v>1.055318573668062</v>
       </c>
       <c r="W5">
-        <v>11.84495801366901</v>
+        <v>10.84714287100455</v>
+      </c>
+      <c r="X5">
+        <v>0.358695652173913</v>
+      </c>
+      <c r="Y5">
+        <v>36.5</v>
+      </c>
+      <c r="Z5">
+        <v>74.7</v>
+      </c>
+      <c r="AA5">
+        <v>0.5008239892537384</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -857,67 +893,76 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>246.5</v>
-      </c>
-      <c r="E6">
-        <v>12589436.5</v>
+        <v>239</v>
       </c>
       <c r="F6">
-        <v>116.074021554169</v>
+        <v>115.0423360833695</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
       <c r="J6">
-        <v>0.5548780487804879</v>
+        <v>0.5472074468085106</v>
       </c>
       <c r="K6">
-        <v>100.9369256948383</v>
+        <v>99.76076856274423</v>
       </c>
       <c r="L6">
-        <v>114.7602382302893</v>
+        <v>114.3002605297438</v>
       </c>
       <c r="M6">
-        <v>117.8955473624504</v>
+        <v>117.0547546678246</v>
       </c>
       <c r="N6">
-        <v>76.47946681792399</v>
+        <v>75.2677811550152</v>
       </c>
       <c r="O6">
-        <v>0.3858403289846851</v>
+        <v>0.402405557967868</v>
       </c>
       <c r="P6">
-        <v>0.5847195121951219</v>
+        <v>0.5686847590099871</v>
       </c>
       <c r="Q6">
-        <v>0.2643806012478729</v>
+        <v>0.2626880156317847</v>
       </c>
       <c r="R6">
-        <v>12.90986954055587</v>
+        <v>12.07757273122015</v>
       </c>
       <c r="S6">
-        <v>12.29171866137266</v>
+        <v>12.12581415544942</v>
       </c>
       <c r="T6">
-        <v>0.2047643221781056</v>
+        <v>0.2098382544507164</v>
       </c>
       <c r="U6">
-        <v>1.019087107587086</v>
+        <v>1.008258861379224</v>
       </c>
       <c r="V6">
-        <v>1.09704211456892</v>
+        <v>1.043698859086146</v>
       </c>
       <c r="W6">
-        <v>11.4821514385633</v>
+        <v>10.76685529504964</v>
+      </c>
+      <c r="X6">
+        <v>0.383195831524099</v>
+      </c>
+      <c r="Y6">
+        <v>29</v>
+      </c>
+      <c r="Z6">
+        <v>74.94999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.5169201007426152</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,67 +970,76 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>234</v>
-      </c>
-      <c r="E7">
-        <v>5890104.5</v>
+        <v>241</v>
       </c>
       <c r="F7">
-        <v>113.6744186046512</v>
+        <v>112.804347826087</v>
       </c>
       <c r="G7">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
       </c>
       <c r="J7">
-        <v>0.4941927990708478</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="K7">
-        <v>98.04401993355481</v>
+        <v>98.79999999999998</v>
       </c>
       <c r="L7">
-        <v>115.4636489479513</v>
+        <v>113.9260869565217</v>
       </c>
       <c r="M7">
-        <v>115.3819767441861</v>
+        <v>118.2184782608696</v>
       </c>
       <c r="N7">
-        <v>77.01962901439647</v>
+        <v>75.9891304347826</v>
       </c>
       <c r="O7">
-        <v>0.3619598560354375</v>
+        <v>0.3754347826086956</v>
       </c>
       <c r="P7">
-        <v>0.5929122369878184</v>
+        <v>0.5772934782608695</v>
       </c>
       <c r="Q7">
-        <v>0.2793635105204872</v>
+        <v>0.2719891304347826</v>
       </c>
       <c r="R7">
-        <v>13.12234219269103</v>
+        <v>13.15543478260869</v>
       </c>
       <c r="S7">
-        <v>11.86381506090808</v>
+        <v>11.91413043478261</v>
       </c>
       <c r="T7">
-        <v>0.2126579457364341</v>
+        <v>0.2077445652173913</v>
       </c>
       <c r="U7">
-        <v>0.9980194785307389</v>
+        <v>0.988644590938536</v>
       </c>
       <c r="V7">
-        <v>1.012492682355696</v>
+        <v>0.9914098480645845</v>
       </c>
       <c r="W7">
-        <v>9.813258624054932</v>
+        <v>11.52216595171919</v>
+      </c>
+      <c r="X7">
+        <v>0.3804347826086957</v>
+      </c>
+      <c r="Y7">
+        <v>31</v>
+      </c>
+      <c r="Z7">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0.4977575470846392</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,132 +1047,73 @@
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>225.5</v>
-      </c>
-      <c r="E8">
-        <v>8826403</v>
+        <v>246.5</v>
       </c>
       <c r="F8">
-        <v>112.5487012987013</v>
+        <v>118.7065217391304</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
       <c r="J8">
-        <v>0.5090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>96.14908008658008</v>
+        <v>100.8882367149758</v>
       </c>
       <c r="L8">
-        <v>115.8262445887446</v>
+        <v>117.3172946859904</v>
       </c>
       <c r="M8">
-        <v>115.3954545454545</v>
+        <v>113.2206280193237</v>
       </c>
       <c r="N8">
-        <v>76.50254329004329</v>
+        <v>77.02420289855073</v>
       </c>
       <c r="O8">
-        <v>0.4458906926406926</v>
+        <v>0.38692922705314</v>
       </c>
       <c r="P8">
-        <v>0.5933457792207792</v>
+        <v>0.5855654589371981</v>
       </c>
       <c r="Q8">
-        <v>0.310862554112554</v>
+        <v>0.2835183574879227</v>
       </c>
       <c r="R8">
-        <v>12.34350649350649</v>
+        <v>11.81096618357488</v>
       </c>
       <c r="S8">
-        <v>11.95459956709957</v>
+        <v>12.19275362318841</v>
       </c>
       <c r="T8">
-        <v>0.2279916125541126</v>
+        <v>0.2119192028985507</v>
       </c>
       <c r="U8">
-        <v>0.9881360956865786</v>
+        <v>1.040372670807453</v>
       </c>
       <c r="V8">
-        <v>1.027684152770722</v>
+        <v>0.9925325042687567</v>
       </c>
       <c r="W8">
-        <v>11.89533132535269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
-      <c r="D9">
-        <v>234</v>
-      </c>
-      <c r="E9">
-        <v>30123535</v>
-      </c>
-      <c r="F9">
-        <v>115.2142857142857</v>
-      </c>
-      <c r="G9">
-        <v>3.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="K9">
-        <v>99.42738095238093</v>
-      </c>
-      <c r="L9">
-        <v>114.6642857142857</v>
-      </c>
-      <c r="M9">
-        <v>113.4559523809524</v>
-      </c>
-      <c r="N9">
-        <v>76.54285714285712</v>
-      </c>
-      <c r="O9">
-        <v>0.3706785714285714</v>
-      </c>
-      <c r="P9">
-        <v>0.5896309523809524</v>
-      </c>
-      <c r="Q9">
-        <v>0.2860595238095238</v>
-      </c>
-      <c r="R9">
-        <v>12.39285714285714</v>
-      </c>
-      <c r="S9">
-        <v>12.06904761904762</v>
-      </c>
-      <c r="T9">
-        <v>0.2155119047619047</v>
-      </c>
-      <c r="U9">
-        <v>1.011538943935783</v>
-      </c>
-      <c r="V9">
-        <v>1.069516633037821</v>
-      </c>
-      <c r="W9">
-        <v>11.52929342789112</v>
+        <v>11.72748061756648</v>
+      </c>
+      <c r="X8">
+        <v>0.6258454106280193</v>
+      </c>
+      <c r="Y8">
+        <v>42</v>
+      </c>
+      <c r="Z8">
+        <v>75.55000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>0.4889823474744299</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>year</t>
   </si>
@@ -94,46 +94,58 @@
     <t>calc_over_prob</t>
   </si>
   <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
     <t>Orlando</t>
   </si>
   <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Portland</t>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>GoldenState</t>
+  </si>
+  <si>
+    <t>OklahomaCity</t>
   </si>
   <si>
     <t>Sacramento</t>
   </si>
   <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
+    <t>Toronto</t>
   </si>
   <si>
     <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
-    <t>Memphis</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,73 +597,73 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F2">
-        <v>114.722479185939</v>
+        <v>112.8173076923077</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2">
-        <v>0.5171717171717172</v>
+        <v>0.5238970588235294</v>
       </c>
       <c r="K2">
-        <v>98.42509250693803</v>
+        <v>99.06357692307694</v>
       </c>
       <c r="L2">
-        <v>115.8052728954672</v>
+        <v>113.4078846153846</v>
       </c>
       <c r="M2">
-        <v>114.4395004625347</v>
+        <v>117.0733076923077</v>
       </c>
       <c r="N2">
-        <v>77.55603607770584</v>
+        <v>75.60203846153846</v>
       </c>
       <c r="O2">
-        <v>0.4198704902867715</v>
+        <v>0.371936923076923</v>
       </c>
       <c r="P2">
-        <v>0.5908640148011101</v>
+        <v>0.5733776923076923</v>
       </c>
       <c r="Q2">
-        <v>0.2783799722479186</v>
+        <v>0.2925934615384615</v>
       </c>
       <c r="R2">
-        <v>12.37654949121184</v>
+        <v>12.24257692307692</v>
       </c>
       <c r="S2">
-        <v>11.5350138760407</v>
+        <v>11.311</v>
       </c>
       <c r="T2">
-        <v>0.2105568917668825</v>
+        <v>0.2222367307692307</v>
       </c>
       <c r="U2">
-        <v>1.005455558158974</v>
+        <v>0.9878923615788765</v>
       </c>
       <c r="V2">
-        <v>1.038430802510143</v>
+        <v>1.029693435936023</v>
       </c>
       <c r="W2">
-        <v>10.46283211763107</v>
+        <v>11.05513080580208</v>
       </c>
       <c r="X2">
-        <v>0.557123034227567</v>
+        <v>0.365</v>
       </c>
       <c r="Y2">
-        <v>40.5</v>
+        <v>32.5</v>
       </c>
       <c r="Z2">
-        <v>76.59999999999999</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.4936169592900065</v>
+        <v>0.4980185443817948</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -662,73 +674,73 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F3">
-        <v>112.2164855072464</v>
+        <v>115.39</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>0.5372340425531915</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="K3">
-        <v>98.93817934782609</v>
+        <v>98.94099999999997</v>
       </c>
       <c r="L3">
-        <v>112.646240942029</v>
+        <v>116.205</v>
       </c>
       <c r="M3">
-        <v>115.878125</v>
+        <v>113.935</v>
       </c>
       <c r="N3">
-        <v>76.05253623188406</v>
+        <v>76.00299999999999</v>
       </c>
       <c r="O3">
-        <v>0.4087871376811594</v>
+        <v>0.38024</v>
       </c>
       <c r="P3">
-        <v>0.5646467391304347</v>
+        <v>0.57931</v>
       </c>
       <c r="Q3">
-        <v>0.2813088768115942</v>
+        <v>0.28796</v>
       </c>
       <c r="R3">
-        <v>12.52803442028986</v>
+        <v>12.209</v>
       </c>
       <c r="S3">
-        <v>11.2513134057971</v>
+        <v>12.132</v>
       </c>
       <c r="T3">
-        <v>0.2089909420289855</v>
+        <v>0.214475</v>
       </c>
       <c r="U3">
-        <v>0.9834924233763924</v>
+        <v>1.010420315236427</v>
       </c>
       <c r="V3">
-        <v>1.01876925814006</v>
+        <v>1.011758781188778</v>
       </c>
       <c r="W3">
-        <v>11.46413181898958</v>
+        <v>12.50804112607605</v>
       </c>
       <c r="X3">
-        <v>0.4402173913043478</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y3">
-        <v>41.5</v>
+        <v>44.5</v>
       </c>
       <c r="Z3">
         <v>75.15000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.5349346164410206</v>
+        <v>0.520528442858359</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -739,73 +751,73 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>239.5</v>
+        <v>230.5</v>
       </c>
       <c r="F4">
-        <v>115.3787234042553</v>
+        <v>112.9641856742697</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>0.531678486997636</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K4">
-        <v>99.58307328605201</v>
+        <v>97.77575030012007</v>
       </c>
       <c r="L4">
-        <v>114.6597163120567</v>
+        <v>114.7935774309724</v>
       </c>
       <c r="M4">
-        <v>114.905011820331</v>
+        <v>114.627130852341</v>
       </c>
       <c r="N4">
-        <v>76.71513002364065</v>
+        <v>77.0796318527411</v>
       </c>
       <c r="O4">
-        <v>0.3341248226950354</v>
+        <v>0.3807599039615847</v>
       </c>
       <c r="P4">
-        <v>0.5818765957446808</v>
+        <v>0.591280712284914</v>
       </c>
       <c r="Q4">
-        <v>0.248455791962175</v>
+        <v>0.2958035214085634</v>
       </c>
       <c r="R4">
-        <v>11.37695035460993</v>
+        <v>12.70594237695078</v>
       </c>
       <c r="S4">
-        <v>12.54451536643026</v>
+        <v>12.57018807523009</v>
       </c>
       <c r="T4">
-        <v>0.2077384160756502</v>
+        <v>0.2273242296918767</v>
       </c>
       <c r="U4">
-        <v>1.011207041229232</v>
+        <v>0.9891785085312584</v>
       </c>
       <c r="V4">
-        <v>1.09050101759209</v>
+        <v>1.039520022548001</v>
       </c>
       <c r="W4">
-        <v>10.71066028731968</v>
+        <v>10.89118581312156</v>
       </c>
       <c r="X4">
-        <v>0.4886524822695035</v>
+        <v>0.522609043617447</v>
       </c>
       <c r="Y4">
-        <v>44</v>
+        <v>38.5</v>
       </c>
       <c r="Z4">
-        <v>76.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.478910851199879</v>
+        <v>0.4851847805777361</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -816,73 +828,73 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>226.5</v>
       </c>
       <c r="F5">
-        <v>112.4932065217391</v>
+        <v>116.1623529411765</v>
       </c>
       <c r="G5">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5">
-        <v>0.4895833333333334</v>
+        <v>0.4591836734693877</v>
       </c>
       <c r="K5">
-        <v>99.61326992753621</v>
+        <v>97.98670588235294</v>
       </c>
       <c r="L5">
-        <v>112.5564764492754</v>
+        <v>117.7425294117647</v>
       </c>
       <c r="M5">
-        <v>116.633786231884</v>
+        <v>113.3143333333333</v>
       </c>
       <c r="N5">
-        <v>74.7070652173913</v>
+        <v>76.20352941176469</v>
       </c>
       <c r="O5">
-        <v>0.3866417572463768</v>
+        <v>0.4242641176470587</v>
       </c>
       <c r="P5">
-        <v>0.5744692028985507</v>
+        <v>0.6076550980392157</v>
       </c>
       <c r="Q5">
-        <v>0.2839759963768115</v>
+        <v>0.2537174509803922</v>
       </c>
       <c r="R5">
-        <v>13.71272644927536</v>
+        <v>12.23876470588236</v>
       </c>
       <c r="S5">
-        <v>12.50629528985507</v>
+        <v>11.34262745098039</v>
       </c>
       <c r="T5">
-        <v>0.2192010869565217</v>
+        <v>0.2031652941176471</v>
       </c>
       <c r="U5">
-        <v>0.9859176732843044</v>
+        <v>1.017183475842176</v>
       </c>
       <c r="V5">
-        <v>1.055318573668062</v>
+        <v>1.007956952265612</v>
       </c>
       <c r="W5">
-        <v>10.84714287100455</v>
+        <v>11.22529722880983</v>
       </c>
       <c r="X5">
-        <v>0.358695652173913</v>
+        <v>0.6629411764705883</v>
       </c>
       <c r="Y5">
-        <v>36.5</v>
+        <v>52.5</v>
       </c>
       <c r="Z5">
-        <v>74.7</v>
+        <v>77.55</v>
       </c>
       <c r="AA5">
-        <v>0.5008239892537384</v>
+        <v>0.4922572198882214</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -893,73 +905,73 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6">
-        <v>115.0423360833695</v>
+        <v>116.5877358490566</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6">
-        <v>0.5472074468085106</v>
+        <v>0.528498427672956</v>
       </c>
       <c r="K6">
-        <v>99.76076856274423</v>
+        <v>101.1109433962264</v>
       </c>
       <c r="L6">
-        <v>114.3002605297438</v>
+        <v>114.6936981132076</v>
       </c>
       <c r="M6">
-        <v>117.0547546678246</v>
+        <v>114.6116603773585</v>
       </c>
       <c r="N6">
-        <v>75.2677811550152</v>
+        <v>74.86296226415094</v>
       </c>
       <c r="O6">
-        <v>0.402405557967868</v>
+        <v>0.4322760377358491</v>
       </c>
       <c r="P6">
-        <v>0.5686847590099871</v>
+        <v>0.5970496226415093</v>
       </c>
       <c r="Q6">
-        <v>0.2626880156317847</v>
+        <v>0.2525354716981132</v>
       </c>
       <c r="R6">
-        <v>12.07757273122015</v>
+        <v>13.7728679245283</v>
       </c>
       <c r="S6">
-        <v>12.12581415544942</v>
+        <v>12.70501886792453</v>
       </c>
       <c r="T6">
-        <v>0.2098382544507164</v>
+        <v>0.21137</v>
       </c>
       <c r="U6">
-        <v>1.008258861379224</v>
+        <v>1.020908369956713</v>
       </c>
       <c r="V6">
-        <v>1.043698859086146</v>
+        <v>1.025839593642522</v>
       </c>
       <c r="W6">
-        <v>10.76685529504964</v>
+        <v>10.71537865251756</v>
       </c>
       <c r="X6">
-        <v>0.383195831524099</v>
+        <v>0.5147169811320755</v>
       </c>
       <c r="Y6">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="Z6">
-        <v>74.94999999999999</v>
+        <v>76</v>
       </c>
       <c r="AA6">
-        <v>0.5169201007426152</v>
+        <v>0.4741815263775075</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -970,73 +982,73 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>232.5</v>
       </c>
       <c r="F7">
-        <v>112.804347826087</v>
+        <v>113.22</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>0.5227272727272727</v>
+        <v>0.53</v>
       </c>
       <c r="K7">
-        <v>98.79999999999998</v>
+        <v>99.66099999999997</v>
       </c>
       <c r="L7">
-        <v>113.9260869565217</v>
+        <v>112.65</v>
       </c>
       <c r="M7">
-        <v>118.2184782608696</v>
+        <v>115.993</v>
       </c>
       <c r="N7">
-        <v>75.9891304347826</v>
+        <v>74.42599999999999</v>
       </c>
       <c r="O7">
-        <v>0.3754347826086956</v>
+        <v>0.37297</v>
       </c>
       <c r="P7">
-        <v>0.5772934782608695</v>
+        <v>0.5612999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.2719891304347826</v>
+        <v>0.26752</v>
       </c>
       <c r="R7">
-        <v>13.15543478260869</v>
+        <v>12.744</v>
       </c>
       <c r="S7">
-        <v>11.91413043478261</v>
+        <v>12.703</v>
       </c>
       <c r="T7">
-        <v>0.2077445652173913</v>
+        <v>0.214635</v>
       </c>
       <c r="U7">
-        <v>0.988644590938536</v>
+        <v>0.9914185639229421</v>
       </c>
       <c r="V7">
-        <v>0.9914098480645845</v>
+        <v>0.9982417372526393</v>
       </c>
       <c r="W7">
-        <v>11.52216595171919</v>
+        <v>11.35944194008727</v>
       </c>
       <c r="X7">
-        <v>0.3804347826086957</v>
+        <v>0.36</v>
       </c>
       <c r="Y7">
-        <v>31</v>
+        <v>23.5</v>
       </c>
       <c r="Z7">
-        <v>74.15000000000001</v>
+        <v>74.05000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.4977575470846392</v>
+        <v>0.5114597516781482</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1047,73 +1059,227 @@
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>246.5</v>
+        <v>244</v>
       </c>
       <c r="F8">
-        <v>118.7065217391304</v>
+        <v>116.0492196878752</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>0.5352891156462585</v>
       </c>
       <c r="K8">
-        <v>100.8882367149758</v>
+        <v>100.4937775110044</v>
       </c>
       <c r="L8">
-        <v>117.3172946859904</v>
+        <v>115.121168467387</v>
       </c>
       <c r="M8">
-        <v>113.2206280193237</v>
+        <v>118.5173269307723</v>
       </c>
       <c r="N8">
-        <v>77.02420289855073</v>
+        <v>76.5344137655062</v>
       </c>
       <c r="O8">
-        <v>0.38692922705314</v>
+        <v>0.3792406962785113</v>
       </c>
       <c r="P8">
-        <v>0.5855654589371981</v>
+        <v>0.5837677070828331</v>
       </c>
       <c r="Q8">
-        <v>0.2835183574879227</v>
+        <v>0.2631828731492597</v>
       </c>
       <c r="R8">
-        <v>11.81096618357488</v>
+        <v>12.58831532613045</v>
       </c>
       <c r="S8">
-        <v>12.19275362318841</v>
+        <v>12.01444577831132</v>
       </c>
       <c r="T8">
-        <v>0.2119192028985507</v>
+        <v>0.2011364545818328</v>
       </c>
       <c r="U8">
-        <v>1.040372670807453</v>
+        <v>1.016192816881569</v>
       </c>
       <c r="V8">
-        <v>0.9925325042687567</v>
+        <v>0.9300735056900263</v>
       </c>
       <c r="W8">
-        <v>11.72748061756648</v>
+        <v>11.37890465049901</v>
       </c>
       <c r="X8">
-        <v>0.6258454106280193</v>
+        <v>0.42296918767507</v>
       </c>
       <c r="Y8">
+        <v>28.5</v>
+      </c>
+      <c r="Z8">
+        <v>74.55000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>0.470376252904394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>230.5</v>
+      </c>
+      <c r="F9">
+        <v>115.1442307692308</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="Z8">
-        <v>75.55000000000001</v>
-      </c>
-      <c r="AA8">
-        <v>0.4889823474744299</v>
+      <c r="J9">
+        <v>0.5533559577677225</v>
+      </c>
+      <c r="K9">
+        <v>97.84134615384616</v>
+      </c>
+      <c r="L9">
+        <v>116.9346153846154</v>
+      </c>
+      <c r="M9">
+        <v>116.1682692307692</v>
+      </c>
+      <c r="N9">
+        <v>75.91346153846153</v>
+      </c>
+      <c r="O9">
+        <v>0.4012596153846154</v>
+      </c>
+      <c r="P9">
+        <v>0.5740480769230769</v>
+      </c>
+      <c r="Q9">
+        <v>0.2747788461538461</v>
+      </c>
+      <c r="R9">
+        <v>11.45</v>
+      </c>
+      <c r="S9">
+        <v>13.09230769230769</v>
+      </c>
+      <c r="T9">
+        <v>0.2177884615384615</v>
+      </c>
+      <c r="U9">
+        <v>1.008268220396066</v>
+      </c>
+      <c r="V9">
+        <v>1.010572394236757</v>
+      </c>
+      <c r="W9">
+        <v>10.32440218516663</v>
+      </c>
+      <c r="X9">
+        <v>0.4711538461538461</v>
+      </c>
+      <c r="Y9">
+        <v>35</v>
+      </c>
+      <c r="Z9">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.4974347709542146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>229.5</v>
+      </c>
+      <c r="F10">
+        <v>114.5497737556561</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>0.5392156862745098</v>
+      </c>
+      <c r="K10">
+        <v>98.45803167420814</v>
+      </c>
+      <c r="L10">
+        <v>115.3364819004525</v>
+      </c>
+      <c r="M10">
+        <v>114.9615007541478</v>
+      </c>
+      <c r="N10">
+        <v>75.66872171945701</v>
+      </c>
+      <c r="O10">
+        <v>0.3516091628959275</v>
+      </c>
+      <c r="P10">
+        <v>0.57205580693816</v>
+      </c>
+      <c r="Q10">
+        <v>0.2406468702865762</v>
+      </c>
+      <c r="R10">
+        <v>11.39298642533937</v>
+      </c>
+      <c r="S10">
+        <v>12.3196455505279</v>
+      </c>
+      <c r="T10">
+        <v>0.2091603506787331</v>
+      </c>
+      <c r="U10">
+        <v>1.003062817475097</v>
+      </c>
+      <c r="V10">
+        <v>1.035363421055657</v>
+      </c>
+      <c r="W10">
+        <v>11.81077167049513</v>
+      </c>
+      <c r="X10">
+        <v>0.5047134238310709</v>
+      </c>
+      <c r="Y10">
+        <v>49.5</v>
+      </c>
+      <c r="Z10">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.500478043140146</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -94,58 +94,70 @@
     <t>calc_over_prob</t>
   </si>
   <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Memphis</t>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
   </si>
   <si>
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>Boston</t>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>OklahomaCity</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>GoldenState</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>NewOrleans</t>
   </si>
   <si>
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>GoldenState</t>
-  </si>
-  <si>
-    <t>OklahomaCity</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
+    <t>LALakers</t>
   </si>
 </sst>
 </file>
@@ -503,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,73 +609,73 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>237</v>
+        <v>239.5</v>
       </c>
       <c r="F2">
-        <v>112.8173076923077</v>
+        <v>114.0541439806413</v>
       </c>
       <c r="G2">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>0.5238970588235294</v>
+        <v>0.5220810647307925</v>
       </c>
       <c r="K2">
-        <v>99.06357692307694</v>
+        <v>100.1416212946158</v>
       </c>
       <c r="L2">
-        <v>113.4078846153846</v>
+        <v>112.9035995160315</v>
       </c>
       <c r="M2">
-        <v>117.0733076923077</v>
+        <v>116.2827888687235</v>
       </c>
       <c r="N2">
-        <v>75.60203846153846</v>
+        <v>75.55184513006657</v>
       </c>
       <c r="O2">
-        <v>0.371936923076923</v>
+        <v>0.3458312159709618</v>
       </c>
       <c r="P2">
-        <v>0.5733776923076923</v>
+        <v>0.5602218693284937</v>
       </c>
       <c r="Q2">
-        <v>0.2925934615384615</v>
+        <v>0.2493947368421053</v>
       </c>
       <c r="R2">
-        <v>12.24257692307692</v>
+        <v>11.14110707803993</v>
       </c>
       <c r="S2">
-        <v>11.311</v>
+        <v>12.36382335148215</v>
       </c>
       <c r="T2">
-        <v>0.2222367307692307</v>
+        <v>0.2053209316394434</v>
       </c>
       <c r="U2">
-        <v>0.9878923615788765</v>
+        <v>0.9978490287020233</v>
       </c>
       <c r="V2">
-        <v>1.029693435936023</v>
+        <v>0.9831696054197292</v>
       </c>
       <c r="W2">
-        <v>11.05513080580208</v>
+        <v>10.67932910905979</v>
       </c>
       <c r="X2">
-        <v>0.365</v>
+        <v>0.3836963097398669</v>
       </c>
       <c r="Y2">
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="Z2">
-        <v>75.15000000000001</v>
+        <v>76.19999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.4980185443817948</v>
+        <v>0.5067845343783219</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -674,73 +686,73 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>239</v>
+        <v>224.5</v>
       </c>
       <c r="F3">
-        <v>115.39</v>
+        <v>112.1024382991377</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>0.4583333333333333</v>
+        <v>0.5112480739599383</v>
       </c>
       <c r="K3">
-        <v>98.94099999999997</v>
+        <v>97.64485578352659</v>
       </c>
       <c r="L3">
-        <v>116.205</v>
+        <v>113.9010258697592</v>
       </c>
       <c r="M3">
-        <v>113.935</v>
+        <v>115.8981118049361</v>
       </c>
       <c r="N3">
-        <v>76.00299999999999</v>
+        <v>76.7065120428189</v>
       </c>
       <c r="O3">
-        <v>0.38024</v>
+        <v>0.3562408563782337</v>
       </c>
       <c r="P3">
-        <v>0.57931</v>
+        <v>0.5760346416889681</v>
       </c>
       <c r="Q3">
-        <v>0.28796</v>
+        <v>0.2541992268807612</v>
       </c>
       <c r="R3">
-        <v>12.209</v>
+        <v>12.57946773713946</v>
       </c>
       <c r="S3">
-        <v>12.132</v>
+        <v>12.47756467439786</v>
       </c>
       <c r="T3">
-        <v>0.214475</v>
+        <v>0.1984084151055605</v>
       </c>
       <c r="U3">
-        <v>1.010420315236427</v>
+        <v>0.9807737384001547</v>
       </c>
       <c r="V3">
-        <v>1.011758781188778</v>
+        <v>0.985679892568631</v>
       </c>
       <c r="W3">
-        <v>12.50804112607605</v>
+        <v>11.11398513741878</v>
       </c>
       <c r="X3">
-        <v>0.5600000000000001</v>
+        <v>0.4363663395777579</v>
       </c>
       <c r="Y3">
-        <v>44.5</v>
+        <v>34.5</v>
       </c>
       <c r="Z3">
-        <v>75.15000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="AA3">
-        <v>0.520528442858359</v>
+        <v>0.5153577947335778</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -751,73 +763,73 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>230.5</v>
+        <v>225.5</v>
       </c>
       <c r="F4">
-        <v>112.9641856742697</v>
+        <v>112.1172077922078</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>0.5409090909090909</v>
+      </c>
+      <c r="K4">
+        <v>97.73595779220778</v>
+      </c>
+      <c r="L4">
+        <v>114.0185714285714</v>
+      </c>
+      <c r="M4">
+        <v>116.1429220779221</v>
+      </c>
+      <c r="N4">
+        <v>76.60681818181817</v>
+      </c>
+      <c r="O4">
+        <v>0.3854394480519481</v>
+      </c>
+      <c r="P4">
+        <v>0.5772524350649351</v>
+      </c>
+      <c r="Q4">
+        <v>0.2943868506493506</v>
+      </c>
+      <c r="R4">
+        <v>12.99003246753247</v>
+      </c>
+      <c r="S4">
+        <v>12.17079545454545</v>
+      </c>
+      <c r="T4">
+        <v>0.2249333603896103</v>
+      </c>
+      <c r="U4">
+        <v>0.9809029553124041</v>
+      </c>
+      <c r="V4">
+        <v>0.9850454405440763</v>
+      </c>
+      <c r="W4">
+        <v>11.51438712676906</v>
+      </c>
+      <c r="X4">
+        <v>0.4433441558441559</v>
+      </c>
+      <c r="Y4">
         <v>37</v>
       </c>
-      <c r="J4">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K4">
-        <v>97.77575030012007</v>
-      </c>
-      <c r="L4">
-        <v>114.7935774309724</v>
-      </c>
-      <c r="M4">
-        <v>114.627130852341</v>
-      </c>
-      <c r="N4">
-        <v>77.0796318527411</v>
-      </c>
-      <c r="O4">
-        <v>0.3807599039615847</v>
-      </c>
-      <c r="P4">
-        <v>0.591280712284914</v>
-      </c>
-      <c r="Q4">
-        <v>0.2958035214085634</v>
-      </c>
-      <c r="R4">
-        <v>12.70594237695078</v>
-      </c>
-      <c r="S4">
-        <v>12.57018807523009</v>
-      </c>
-      <c r="T4">
-        <v>0.2273242296918767</v>
-      </c>
-      <c r="U4">
-        <v>0.9891785085312584</v>
-      </c>
-      <c r="V4">
-        <v>1.039520022548001</v>
-      </c>
-      <c r="W4">
-        <v>10.89118581312156</v>
-      </c>
-      <c r="X4">
-        <v>0.522609043617447</v>
-      </c>
-      <c r="Y4">
-        <v>38.5</v>
-      </c>
       <c r="Z4">
-        <v>75.40000000000001</v>
+        <v>74.95</v>
       </c>
       <c r="AA4">
-        <v>0.4851847805777361</v>
+        <v>0.5117083214312659</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -828,73 +840,73 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>226.5</v>
+        <v>238</v>
       </c>
       <c r="F5">
-        <v>116.1623529411765</v>
+        <v>116</v>
       </c>
       <c r="G5">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>0.4591836734693877</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="K5">
-        <v>97.98670588235294</v>
+        <v>99.71637931034481</v>
       </c>
       <c r="L5">
-        <v>117.7425294117647</v>
+        <v>116.0163793103448</v>
       </c>
       <c r="M5">
-        <v>113.3143333333333</v>
+        <v>117.2439655172414</v>
       </c>
       <c r="N5">
-        <v>76.20352941176469</v>
+        <v>73.47931034482758</v>
       </c>
       <c r="O5">
-        <v>0.4242641176470587</v>
+        <v>0.4332155172413792</v>
       </c>
       <c r="P5">
-        <v>0.6076550980392157</v>
+        <v>0.5826810344827587</v>
       </c>
       <c r="Q5">
-        <v>0.2537174509803922</v>
+        <v>0.2682672413793104</v>
       </c>
       <c r="R5">
-        <v>12.23876470588236</v>
+        <v>12.62413793103448</v>
       </c>
       <c r="S5">
-        <v>11.34262745098039</v>
+        <v>12.11034482758621</v>
       </c>
       <c r="T5">
-        <v>0.2031652941176471</v>
+        <v>0.2178146551724137</v>
       </c>
       <c r="U5">
-        <v>1.017183475842176</v>
+        <v>1.014873140857393</v>
       </c>
       <c r="V5">
-        <v>1.007956952265612</v>
+        <v>0.9880617998217018</v>
       </c>
       <c r="W5">
-        <v>11.22529722880983</v>
+        <v>10.38247010106923</v>
       </c>
       <c r="X5">
-        <v>0.6629411764705883</v>
+        <v>0.4568965517241379</v>
       </c>
       <c r="Y5">
-        <v>52.5</v>
+        <v>24</v>
       </c>
       <c r="Z5">
-        <v>77.55</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.4922572198882214</v>
+        <v>0.4844894316827802</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -905,73 +917,73 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F6">
-        <v>116.5877358490566</v>
+        <v>114.2004310344828</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>0.528498427672956</v>
+        <v>0.4951298701298701</v>
       </c>
       <c r="K6">
-        <v>101.1109433962264</v>
+        <v>96.79128694581283</v>
       </c>
       <c r="L6">
-        <v>114.6936981132076</v>
+        <v>117.0265086206897</v>
       </c>
       <c r="M6">
-        <v>114.6116603773585</v>
+        <v>115.1648706896551</v>
       </c>
       <c r="N6">
-        <v>74.86296226415094</v>
+        <v>75.02429187192116</v>
       </c>
       <c r="O6">
-        <v>0.4322760377358491</v>
+        <v>0.385719827586207</v>
       </c>
       <c r="P6">
-        <v>0.5970496226415093</v>
+        <v>0.5887358374384237</v>
       </c>
       <c r="Q6">
-        <v>0.2525354716981132</v>
+        <v>0.2689963054187192</v>
       </c>
       <c r="R6">
-        <v>13.7728679245283</v>
+        <v>11.56887315270936</v>
       </c>
       <c r="S6">
-        <v>12.70501886792453</v>
+        <v>11.20668103448276</v>
       </c>
       <c r="T6">
-        <v>0.21137</v>
+        <v>0.2147085899014778</v>
       </c>
       <c r="U6">
-        <v>1.020908369956713</v>
+        <v>0.999128880441669</v>
       </c>
       <c r="V6">
-        <v>1.025839593642522</v>
+        <v>0.9661284078542733</v>
       </c>
       <c r="W6">
-        <v>10.71537865251756</v>
+        <v>11.1707250111989</v>
       </c>
       <c r="X6">
-        <v>0.5147169811320755</v>
+        <v>0.561884236453202</v>
       </c>
       <c r="Y6">
-        <v>51</v>
+        <v>44.5</v>
       </c>
       <c r="Z6">
-        <v>76</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.4741815263775075</v>
+        <v>0.4799477642716105</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -982,73 +994,73 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>232.5</v>
+        <v>220.5</v>
       </c>
       <c r="F7">
-        <v>113.22</v>
+        <v>112.780701754386</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>0.53</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="K7">
-        <v>99.66099999999997</v>
+        <v>97.13859649122806</v>
       </c>
       <c r="L7">
-        <v>112.65</v>
+        <v>115.5166666666667</v>
       </c>
       <c r="M7">
-        <v>115.993</v>
+        <v>113.2535087719298</v>
       </c>
       <c r="N7">
-        <v>74.42599999999999</v>
+        <v>77.75614035087722</v>
       </c>
       <c r="O7">
-        <v>0.37297</v>
+        <v>0.3813684210526316</v>
       </c>
       <c r="P7">
-        <v>0.5612999999999999</v>
+        <v>0.5867280701754385</v>
       </c>
       <c r="Q7">
-        <v>0.26752</v>
+        <v>0.2645087719298245</v>
       </c>
       <c r="R7">
-        <v>12.744</v>
+        <v>12.30701754385965</v>
       </c>
       <c r="S7">
-        <v>12.703</v>
+        <v>13.32280701754386</v>
       </c>
       <c r="T7">
-        <v>0.214635</v>
+        <v>0.2073377192982457</v>
       </c>
       <c r="U7">
-        <v>0.9914185639229421</v>
+        <v>0.9867078018756429</v>
       </c>
       <c r="V7">
-        <v>0.9982417372526393</v>
+        <v>1.016921609538263</v>
       </c>
       <c r="W7">
-        <v>11.35944194008727</v>
+        <v>10.0408138261072</v>
       </c>
       <c r="X7">
-        <v>0.36</v>
+        <v>0.6228070175438596</v>
       </c>
       <c r="Y7">
-        <v>23.5</v>
+        <v>50.5</v>
       </c>
       <c r="Z7">
-        <v>74.05000000000001</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.5114597516781482</v>
+        <v>0.48143797011866</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1059,73 +1071,73 @@
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F8">
-        <v>116.0492196878752</v>
+        <v>112.3834586466165</v>
       </c>
       <c r="G8">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8">
-        <v>0.5352891156462585</v>
+        <v>0.4597402597402597</v>
       </c>
       <c r="K8">
-        <v>100.4937775110044</v>
+        <v>98.61116854636592</v>
       </c>
       <c r="L8">
-        <v>115.121168467387</v>
+        <v>113.1957393483709</v>
       </c>
       <c r="M8">
-        <v>118.5173269307723</v>
+        <v>114.558395989975</v>
       </c>
       <c r="N8">
-        <v>76.5344137655062</v>
+        <v>77.75393170426065</v>
       </c>
       <c r="O8">
-        <v>0.3792406962785113</v>
+        <v>0.3464617794486216</v>
       </c>
       <c r="P8">
-        <v>0.5837677070828331</v>
+        <v>0.582845394736842</v>
       </c>
       <c r="Q8">
-        <v>0.2631828731492597</v>
+        <v>0.2814584899749373</v>
       </c>
       <c r="R8">
-        <v>12.58831532613045</v>
+        <v>12.58201754385965</v>
       </c>
       <c r="S8">
-        <v>12.01444577831132</v>
+        <v>12.38618421052632</v>
       </c>
       <c r="T8">
-        <v>0.2011364545818328</v>
+        <v>0.2161302474937343</v>
       </c>
       <c r="U8">
-        <v>1.016192816881569</v>
+        <v>0.9832323591130055</v>
       </c>
       <c r="V8">
-        <v>0.9300735056900263</v>
+        <v>0.8890318496114061</v>
       </c>
       <c r="W8">
-        <v>11.37890465049901</v>
+        <v>11.07386678462388</v>
       </c>
       <c r="X8">
-        <v>0.42296918767507</v>
+        <v>0.4338972431077694</v>
       </c>
       <c r="Y8">
-        <v>28.5</v>
+        <v>34</v>
       </c>
       <c r="Z8">
-        <v>74.55000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="AA8">
-        <v>0.470376252904394</v>
+        <v>0.4609081411531402</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1136,10 +1148,10 @@
         <v>2023</v>
       </c>
       <c r="D9">
-        <v>230.5</v>
+        <v>237</v>
       </c>
       <c r="F9">
-        <v>115.1442307692308</v>
+        <v>116.6393939393939</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1148,61 +1160,61 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>0.5533559577677225</v>
+        <v>0.5807017543859649</v>
       </c>
       <c r="K9">
-        <v>97.84134615384616</v>
+        <v>99.79044657097288</v>
       </c>
       <c r="L9">
-        <v>116.9346153846154</v>
+        <v>115.6638437001595</v>
       </c>
       <c r="M9">
-        <v>116.1682692307692</v>
+        <v>114.2801435406699</v>
       </c>
       <c r="N9">
-        <v>75.91346153846153</v>
+        <v>74.95846889952153</v>
       </c>
       <c r="O9">
-        <v>0.4012596153846154</v>
+        <v>0.3527744816586923</v>
       </c>
       <c r="P9">
-        <v>0.5740480769230769</v>
+        <v>0.5784594896331737</v>
       </c>
       <c r="Q9">
-        <v>0.2747788461538461</v>
+        <v>0.2682054226475279</v>
       </c>
       <c r="R9">
-        <v>11.45</v>
+        <v>11.87553429027113</v>
       </c>
       <c r="S9">
-        <v>13.09230769230769</v>
+        <v>13.41483253588517</v>
       </c>
       <c r="T9">
-        <v>0.2177884615384615</v>
+        <v>0.2163292663476874</v>
       </c>
       <c r="U9">
-        <v>1.008268220396066</v>
+        <v>1.020467138577375</v>
       </c>
       <c r="V9">
-        <v>1.010572394236757</v>
+        <v>1.062822918699412</v>
       </c>
       <c r="W9">
-        <v>10.32440218516663</v>
+        <v>11.55173267041994</v>
       </c>
       <c r="X9">
-        <v>0.4711538461538461</v>
+        <v>0.4998405103668262</v>
       </c>
       <c r="Y9">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="Z9">
-        <v>74.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.4974347709542146</v>
+        <v>0.4938294150887351</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1213,73 +1225,227 @@
         <v>2023</v>
       </c>
       <c r="D10">
-        <v>229.5</v>
+        <v>232.5</v>
       </c>
       <c r="F10">
-        <v>114.5497737556561</v>
+        <v>114.3299240210403</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>0.5392156862745098</v>
+        <v>0.521624780829924</v>
       </c>
       <c r="K10">
-        <v>98.45803167420814</v>
+        <v>97.86452367036821</v>
       </c>
       <c r="L10">
-        <v>115.3364819004525</v>
+        <v>115.801651081239</v>
       </c>
       <c r="M10">
-        <v>114.9615007541478</v>
+        <v>115.395601987142</v>
       </c>
       <c r="N10">
-        <v>75.66872171945701</v>
+        <v>75.21142606662769</v>
       </c>
       <c r="O10">
-        <v>0.3516091628959275</v>
+        <v>0.4371237580362362</v>
       </c>
       <c r="P10">
-        <v>0.57205580693816</v>
+        <v>0.5971101694915255</v>
       </c>
       <c r="Q10">
-        <v>0.2406468702865762</v>
+        <v>0.2953794564582115</v>
       </c>
       <c r="R10">
-        <v>11.39298642533937</v>
+        <v>12.32312974868498</v>
       </c>
       <c r="S10">
-        <v>12.3196455505279</v>
+        <v>12.5134862653419</v>
       </c>
       <c r="T10">
-        <v>0.2091603506787331</v>
+        <v>0.2273659409701929</v>
       </c>
       <c r="U10">
-        <v>1.003062817475097</v>
+        <v>1.000261802458795</v>
       </c>
       <c r="V10">
-        <v>1.035363421055657</v>
+        <v>1.052631433805718</v>
       </c>
       <c r="W10">
-        <v>11.81077167049513</v>
+        <v>11.12350221232233</v>
       </c>
       <c r="X10">
-        <v>0.5047134238310709</v>
+        <v>0.521478667445938</v>
       </c>
       <c r="Y10">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="Z10">
-        <v>76.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="AA10">
-        <v>0.500478043140146</v>
+        <v>0.4947953396634655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>233.5</v>
+      </c>
+      <c r="F11">
+        <v>115.7069805194805</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>0.5508385744234801</v>
+      </c>
+      <c r="K11">
+        <v>99.96920454545457</v>
+      </c>
+      <c r="L11">
+        <v>115.1288149350649</v>
+      </c>
+      <c r="M11">
+        <v>115.1603571428572</v>
+      </c>
+      <c r="N11">
+        <v>76.51862012987013</v>
+      </c>
+      <c r="O11">
+        <v>0.422649025974026</v>
+      </c>
+      <c r="P11">
+        <v>0.5916785714285713</v>
+      </c>
+      <c r="Q11">
+        <v>0.248712012987013</v>
+      </c>
+      <c r="R11">
+        <v>12.95881493506493</v>
+      </c>
+      <c r="S11">
+        <v>11.31508116883117</v>
+      </c>
+      <c r="T11">
+        <v>0.2055767857142857</v>
+      </c>
+      <c r="U11">
+        <v>1.012309540852848</v>
+      </c>
+      <c r="V11">
+        <v>1.010713265385966</v>
+      </c>
+      <c r="W11">
+        <v>10.99952910247054</v>
+      </c>
+      <c r="X11">
+        <v>0.4863636363636363</v>
+      </c>
+      <c r="Y11">
+        <v>44</v>
+      </c>
+      <c r="Z11">
+        <v>76.19999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.4755091291494521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>238</v>
+      </c>
+      <c r="F12">
+        <v>115.9553571428571</v>
+      </c>
+      <c r="G12">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12">
+        <v>0.5038986354775828</v>
+      </c>
+      <c r="K12">
+        <v>99.18088972431075</v>
+      </c>
+      <c r="L12">
+        <v>116.1247180451128</v>
+      </c>
+      <c r="M12">
+        <v>116.8157581453634</v>
+      </c>
+      <c r="N12">
+        <v>76.11126253132831</v>
+      </c>
+      <c r="O12">
+        <v>0.3758009085213033</v>
+      </c>
+      <c r="P12">
+        <v>0.590717731829574</v>
+      </c>
+      <c r="Q12">
+        <v>0.2975758145363409</v>
+      </c>
+      <c r="R12">
+        <v>12.25653195488722</v>
+      </c>
+      <c r="S12">
+        <v>11.04620927318296</v>
+      </c>
+      <c r="T12">
+        <v>0.2183666979949875</v>
+      </c>
+      <c r="U12">
+        <v>1.014482564679415</v>
+      </c>
+      <c r="V12">
+        <v>1.016498316498317</v>
+      </c>
+      <c r="W12">
+        <v>11.91764636535575</v>
+      </c>
+      <c r="X12">
+        <v>0.469141604010025</v>
+      </c>
+      <c r="Y12">
+        <v>42</v>
+      </c>
+      <c r="Z12">
+        <v>75.05</v>
+      </c>
+      <c r="AA12">
+        <v>0.4663094471054639</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>year</t>
   </si>
@@ -94,70 +94,58 @@
     <t>calc_over_prob</t>
   </si>
   <si>
-    <t>Charlotte</t>
+    <t>Indiana</t>
   </si>
   <si>
     <t>Cleveland</t>
   </si>
   <si>
+    <t>Orlando</t>
+  </si>
+  <si>
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>NewYork</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Chicago</t>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>LALakers</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>NewOrleans</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
   </si>
   <si>
     <t>OklahomaCity</t>
   </si>
   <si>
-    <t>Dallas</t>
-  </si>
-  <si>
     <t>GoldenState</t>
   </si>
   <si>
     <t>Portland</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>NewOrleans</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>LALakers</t>
   </si>
 </sst>
 </file>
@@ -515,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,73 +597,73 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>239.5</v>
+        <v>232.5</v>
       </c>
       <c r="F2">
-        <v>114.0541439806413</v>
+        <v>116.1822033898305</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2">
-        <v>0.5220810647307925</v>
+        <v>0.4916741005055011</v>
       </c>
       <c r="K2">
-        <v>100.1416212946158</v>
+        <v>99.05225988700562</v>
       </c>
       <c r="L2">
-        <v>112.9035995160315</v>
+        <v>116.6006497175141</v>
       </c>
       <c r="M2">
-        <v>116.2827888687235</v>
+        <v>114.6872598870057</v>
       </c>
       <c r="N2">
-        <v>75.55184513006657</v>
+        <v>75.91453389830509</v>
       </c>
       <c r="O2">
-        <v>0.3458312159709618</v>
+        <v>0.4540964689265535</v>
       </c>
       <c r="P2">
-        <v>0.5602218693284937</v>
+        <v>0.5899411016949152</v>
       </c>
       <c r="Q2">
-        <v>0.2493947368421053</v>
+        <v>0.2589987288135593</v>
       </c>
       <c r="R2">
-        <v>11.14110707803993</v>
+        <v>12.10983050847458</v>
       </c>
       <c r="S2">
-        <v>12.36382335148215</v>
+        <v>11.83005649717514</v>
       </c>
       <c r="T2">
-        <v>0.2053209316394434</v>
+        <v>0.2088283898305084</v>
       </c>
       <c r="U2">
-        <v>0.9978490287020233</v>
+        <v>1.01646722125836</v>
       </c>
       <c r="V2">
-        <v>0.9831696054197292</v>
+        <v>1.029708745220725</v>
       </c>
       <c r="W2">
-        <v>10.67932910905979</v>
+        <v>11.07405510240506</v>
       </c>
       <c r="X2">
-        <v>0.3836963097398669</v>
+        <v>0.5725988700564972</v>
       </c>
       <c r="Y2">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="Z2">
-        <v>76.19999999999999</v>
+        <v>77.25</v>
       </c>
       <c r="AA2">
-        <v>0.5067845343783219</v>
+        <v>0.5147894100714879</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -686,73 +674,73 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>224.5</v>
+        <v>222.5</v>
       </c>
       <c r="F3">
-        <v>112.1024382991377</v>
+        <v>114.4194220616838</v>
       </c>
       <c r="G3">
-        <v>14.5</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>0.5112480739599383</v>
+        <v>0.4752709085857183</v>
       </c>
       <c r="K3">
-        <v>97.64485578352659</v>
+        <v>96.3146846346207</v>
       </c>
       <c r="L3">
-        <v>113.9010258697592</v>
+        <v>117.9316615726591</v>
       </c>
       <c r="M3">
-        <v>115.8981118049361</v>
+        <v>112.8200889135871</v>
       </c>
       <c r="N3">
-        <v>76.7065120428189</v>
+        <v>77.62970269519312</v>
       </c>
       <c r="O3">
-        <v>0.3562408563782337</v>
+        <v>0.3656968602389553</v>
       </c>
       <c r="P3">
-        <v>0.5760346416889681</v>
+        <v>0.6024366490691858</v>
       </c>
       <c r="Q3">
-        <v>0.2541992268807612</v>
+        <v>0.2685429285912754</v>
       </c>
       <c r="R3">
-        <v>12.57946773713946</v>
+        <v>12.47414559599889</v>
       </c>
       <c r="S3">
-        <v>12.47756467439786</v>
+        <v>12.62697971658794</v>
       </c>
       <c r="T3">
-        <v>0.1984084151055605</v>
+        <v>0.2068174492914699</v>
       </c>
       <c r="U3">
-        <v>0.9807737384001547</v>
+        <v>1.001044812438179</v>
       </c>
       <c r="V3">
-        <v>0.985679892568631</v>
+        <v>0.9829776545556644</v>
       </c>
       <c r="W3">
-        <v>11.11398513741878</v>
+        <v>10.90610648038377</v>
       </c>
       <c r="X3">
-        <v>0.4363663395777579</v>
+        <v>0.6589330369547097</v>
       </c>
       <c r="Y3">
-        <v>34.5</v>
+        <v>49</v>
       </c>
       <c r="Z3">
-        <v>75.2</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.5153577947335778</v>
+        <v>0.4672367535391297</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -763,73 +751,73 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>225.5</v>
+        <v>227</v>
       </c>
       <c r="F4">
-        <v>112.1172077922078</v>
+        <v>111.5847457627119</v>
       </c>
       <c r="G4">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>0.5409090909090909</v>
+        <v>0.5214761040532365</v>
       </c>
       <c r="K4">
-        <v>97.73595779220778</v>
+        <v>98.66525423728817</v>
       </c>
       <c r="L4">
-        <v>114.0185714285714</v>
+        <v>112.3262711864406</v>
       </c>
       <c r="M4">
-        <v>116.1429220779221</v>
+        <v>117.5194915254237</v>
       </c>
       <c r="N4">
-        <v>76.60681818181817</v>
+        <v>75.50169491525423</v>
       </c>
       <c r="O4">
-        <v>0.3854394480519481</v>
+        <v>0.3709406779661015</v>
       </c>
       <c r="P4">
-        <v>0.5772524350649351</v>
+        <v>0.571364406779661</v>
       </c>
       <c r="Q4">
-        <v>0.2943868506493506</v>
+        <v>0.3061949152542373</v>
       </c>
       <c r="R4">
-        <v>12.99003246753247</v>
+        <v>12.87033898305085</v>
       </c>
       <c r="S4">
-        <v>12.17079545454545</v>
+        <v>12.18135593220339</v>
       </c>
       <c r="T4">
-        <v>0.2249333603896103</v>
+        <v>0.2298008474576271</v>
       </c>
       <c r="U4">
-        <v>0.9809029553124041</v>
+        <v>0.976244494861871</v>
       </c>
       <c r="V4">
-        <v>0.9850454405440763</v>
+        <v>1.016752366452033</v>
       </c>
       <c r="W4">
-        <v>11.51438712676906</v>
+        <v>11.19434640197002</v>
       </c>
       <c r="X4">
-        <v>0.4433441558441559</v>
+        <v>0.3305084745762712</v>
       </c>
       <c r="Y4">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Z4">
-        <v>74.95</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.5117083214312659</v>
+        <v>0.4864970743784106</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -840,73 +828,73 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F5">
-        <v>116</v>
+        <v>115.2368421052632</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5">
-        <v>0.5263157894736842</v>
+        <v>0.5219155844155844</v>
       </c>
       <c r="K5">
-        <v>99.71637931034481</v>
+        <v>98.72982456140352</v>
       </c>
       <c r="L5">
-        <v>116.0163793103448</v>
+        <v>116.1140350877193</v>
       </c>
       <c r="M5">
-        <v>117.2439655172414</v>
+        <v>112.2236842105264</v>
       </c>
       <c r="N5">
-        <v>73.47931034482758</v>
+        <v>76.44122807017541</v>
       </c>
       <c r="O5">
-        <v>0.4332155172413792</v>
+        <v>0.3736578947368421</v>
       </c>
       <c r="P5">
-        <v>0.5826810344827587</v>
+        <v>0.5827631578947369</v>
       </c>
       <c r="Q5">
-        <v>0.2682672413793104</v>
+        <v>0.2855350877192982</v>
       </c>
       <c r="R5">
-        <v>12.62413793103448</v>
+        <v>11.80964912280702</v>
       </c>
       <c r="S5">
-        <v>12.11034482758621</v>
+        <v>12.81666666666666</v>
       </c>
       <c r="T5">
-        <v>0.2178146551724137</v>
+        <v>0.2168114035087719</v>
       </c>
       <c r="U5">
-        <v>1.014873140857393</v>
+        <v>1.008196343878068</v>
       </c>
       <c r="V5">
-        <v>0.9880617998217018</v>
+        <v>1.006548579013775</v>
       </c>
       <c r="W5">
-        <v>10.38247010106923</v>
+        <v>11.74619852777213</v>
       </c>
       <c r="X5">
-        <v>0.4568965517241379</v>
+        <v>0.6403508771929824</v>
       </c>
       <c r="Y5">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="Z5">
-        <v>75.09999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="AA5">
-        <v>0.4844894316827802</v>
+        <v>0.4980496117560247</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -917,73 +905,73 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F6">
-        <v>114.2004310344828</v>
+        <v>114.1101694915254</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6">
-        <v>0.4951298701298701</v>
+        <v>0.5593220338983051</v>
       </c>
       <c r="K6">
-        <v>96.79128694581283</v>
+        <v>97.85847457627119</v>
       </c>
       <c r="L6">
-        <v>117.0265086206897</v>
+        <v>115.706779661017</v>
       </c>
       <c r="M6">
-        <v>115.1648706896551</v>
+        <v>114.5720338983051</v>
       </c>
       <c r="N6">
-        <v>75.02429187192116</v>
+        <v>77.03813559322035</v>
       </c>
       <c r="O6">
-        <v>0.385719827586207</v>
+        <v>0.3505508474576272</v>
       </c>
       <c r="P6">
-        <v>0.5887358374384237</v>
+        <v>0.5695932203389831</v>
       </c>
       <c r="Q6">
-        <v>0.2689963054187192</v>
+        <v>0.282364406779661</v>
       </c>
       <c r="R6">
-        <v>11.56887315270936</v>
+        <v>11.36186440677966</v>
       </c>
       <c r="S6">
-        <v>11.20668103448276</v>
+        <v>13.73389830508474</v>
       </c>
       <c r="T6">
-        <v>0.2147085899014778</v>
+        <v>0.2210805084745762</v>
       </c>
       <c r="U6">
-        <v>0.999128880441669</v>
+        <v>0.998339190652016</v>
       </c>
       <c r="V6">
-        <v>0.9661284078542733</v>
+        <v>0.9790972090364114</v>
       </c>
       <c r="W6">
-        <v>11.1707250111989</v>
+        <v>10.29313616501341</v>
       </c>
       <c r="X6">
-        <v>0.561884236453202</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="Y6">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="Z6">
         <v>76.15000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.4799477642716105</v>
+        <v>0.4948919009376189</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -994,73 +982,73 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>220.5</v>
+        <v>237.5</v>
       </c>
       <c r="F7">
-        <v>112.780701754386</v>
+        <v>112.7203389830509</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>14.5</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>0.4649122807017544</v>
+        <v>0.5644736842105263</v>
       </c>
       <c r="K7">
-        <v>97.13859649122806</v>
+        <v>97.80063559322033</v>
       </c>
       <c r="L7">
-        <v>115.5166666666667</v>
+        <v>114.288884180791</v>
       </c>
       <c r="M7">
-        <v>113.2535087719298</v>
+        <v>119.0446610169492</v>
       </c>
       <c r="N7">
-        <v>77.75614035087722</v>
+        <v>75.76508474576272</v>
       </c>
       <c r="O7">
-        <v>0.3813684210526316</v>
+        <v>0.4118829096045197</v>
       </c>
       <c r="P7">
-        <v>0.5867280701754385</v>
+        <v>0.5778872881355933</v>
       </c>
       <c r="Q7">
-        <v>0.2645087719298245</v>
+        <v>0.275907627118644</v>
       </c>
       <c r="R7">
-        <v>12.30701754385965</v>
+        <v>12.06532485875706</v>
       </c>
       <c r="S7">
-        <v>13.32280701754386</v>
+        <v>11.73139830508475</v>
       </c>
       <c r="T7">
-        <v>0.2073377192982457</v>
+        <v>0.2119942796610169</v>
       </c>
       <c r="U7">
-        <v>0.9867078018756429</v>
+        <v>0.98617969363999</v>
       </c>
       <c r="V7">
-        <v>1.016921609538263</v>
+        <v>1.009759102789509</v>
       </c>
       <c r="W7">
-        <v>10.0408138261072</v>
+        <v>11.14153430933071</v>
       </c>
       <c r="X7">
-        <v>0.6228070175438596</v>
+        <v>0.3769774011299435</v>
       </c>
       <c r="Y7">
-        <v>50.5</v>
+        <v>35.5</v>
       </c>
       <c r="Z7">
-        <v>75.65000000000001</v>
+        <v>74.25</v>
       </c>
       <c r="AA7">
-        <v>0.48143797011866</v>
+        <v>0.5165661907714419</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1071,73 +1059,73 @@
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>226</v>
+        <v>240.5</v>
       </c>
       <c r="F8">
-        <v>112.3834586466165</v>
+        <v>117.730701754386</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <v>0.4597402597402597</v>
+        <v>0.5691347011596788</v>
       </c>
       <c r="K8">
-        <v>98.61116854636592</v>
+        <v>99.96938596491228</v>
       </c>
       <c r="L8">
-        <v>113.1957393483709</v>
+        <v>116.8641666666667</v>
       </c>
       <c r="M8">
-        <v>114.558395989975</v>
+        <v>115.9775438596491</v>
       </c>
       <c r="N8">
-        <v>77.75393170426065</v>
+        <v>73.76627192982455</v>
       </c>
       <c r="O8">
-        <v>0.3464617794486216</v>
+        <v>0.3988868421052632</v>
       </c>
       <c r="P8">
-        <v>0.582845394736842</v>
+        <v>0.5831324561403506</v>
       </c>
       <c r="Q8">
-        <v>0.2814584899749373</v>
+        <v>0.2619907894736842</v>
       </c>
       <c r="R8">
-        <v>12.58201754385965</v>
+        <v>12.03767543859649</v>
       </c>
       <c r="S8">
-        <v>12.38618421052632</v>
+        <v>12.53298245614035</v>
       </c>
       <c r="T8">
-        <v>0.2161302474937343</v>
+        <v>0.2140616228070175</v>
       </c>
       <c r="U8">
-        <v>0.9832323591130055</v>
+        <v>1.030014888489816</v>
       </c>
       <c r="V8">
-        <v>0.8890318496114061</v>
+        <v>1.0263220926661</v>
       </c>
       <c r="W8">
-        <v>11.07386678462388</v>
+        <v>11.39161062614853</v>
       </c>
       <c r="X8">
-        <v>0.4338972431077694</v>
+        <v>0.487280701754386</v>
       </c>
       <c r="Y8">
-        <v>34</v>
+        <v>23.5</v>
       </c>
       <c r="Z8">
-        <v>75.5</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.4609081411531402</v>
+        <v>0.4878405815256194</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1148,73 +1136,73 @@
         <v>2023</v>
       </c>
       <c r="D9">
-        <v>237</v>
+        <v>238.5</v>
       </c>
       <c r="F9">
-        <v>116.6393939393939</v>
+        <v>117.8188194038574</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>0.5807017543859649</v>
+        <v>0.5752118644067796</v>
       </c>
       <c r="K9">
-        <v>99.79044657097288</v>
+        <v>101.3956165984804</v>
       </c>
       <c r="L9">
-        <v>115.6638437001595</v>
+        <v>115.1713325540619</v>
       </c>
       <c r="M9">
-        <v>114.2801435406699</v>
+        <v>115.7277030976038</v>
       </c>
       <c r="N9">
-        <v>74.95846889952153</v>
+        <v>76.20055523085912</v>
       </c>
       <c r="O9">
-        <v>0.3527744816586923</v>
+        <v>0.4113633839859732</v>
       </c>
       <c r="P9">
-        <v>0.5784594896331737</v>
+        <v>0.5903826709526592</v>
       </c>
       <c r="Q9">
-        <v>0.2682054226475279</v>
+        <v>0.2581227352425483</v>
       </c>
       <c r="R9">
-        <v>11.87553429027113</v>
+        <v>12.74040035067212</v>
       </c>
       <c r="S9">
-        <v>13.41483253588517</v>
+        <v>11.35952659263589</v>
       </c>
       <c r="T9">
-        <v>0.2163292663476874</v>
+        <v>0.2032233343074226</v>
       </c>
       <c r="U9">
-        <v>1.020467138577375</v>
+        <v>1.030785821556058</v>
       </c>
       <c r="V9">
-        <v>1.062822918699412</v>
+        <v>0.9985815435608614</v>
       </c>
       <c r="W9">
-        <v>11.55173267041994</v>
+        <v>11.0448316658053</v>
       </c>
       <c r="X9">
-        <v>0.4998405103668262</v>
+        <v>0.4788135593220339</v>
       </c>
       <c r="Y9">
-        <v>34.5</v>
+        <v>48.5</v>
       </c>
       <c r="Z9">
-        <v>75.90000000000001</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.4938294150887351</v>
+        <v>0.468069482260938</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1225,227 +1213,73 @@
         <v>2023</v>
       </c>
       <c r="D10">
-        <v>232.5</v>
+        <v>240.5</v>
       </c>
       <c r="F10">
-        <v>114.3299240210403</v>
+        <v>117.1677253478524</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10">
-        <v>0.521624780829924</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="K10">
-        <v>97.86452367036821</v>
+        <v>98.56624319419234</v>
       </c>
       <c r="L10">
-        <v>115.801651081239</v>
+        <v>118.3398215366001</v>
       </c>
       <c r="M10">
-        <v>115.395601987142</v>
+        <v>117.4650786448881</v>
       </c>
       <c r="N10">
-        <v>75.21142606662769</v>
+        <v>76.65511191772535</v>
       </c>
       <c r="O10">
-        <v>0.4371237580362362</v>
+        <v>0.4140003024803387</v>
       </c>
       <c r="P10">
-        <v>0.5971101694915255</v>
+        <v>0.6044671808832427</v>
       </c>
       <c r="Q10">
-        <v>0.2953794564582115</v>
+        <v>0.2941643980641259</v>
       </c>
       <c r="R10">
-        <v>12.32312974868498</v>
+        <v>12.39467634603751</v>
       </c>
       <c r="S10">
-        <v>12.5134862653419</v>
+        <v>11.89913793103448</v>
       </c>
       <c r="T10">
-        <v>0.2273659409701929</v>
+        <v>0.2231632637628554</v>
       </c>
       <c r="U10">
-        <v>1.000261802458795</v>
+        <v>1.025089460611132</v>
       </c>
       <c r="V10">
-        <v>1.052631433805718</v>
+        <v>1.01463041418264</v>
       </c>
       <c r="W10">
-        <v>11.12350221232233</v>
+        <v>12.43665165612157</v>
       </c>
       <c r="X10">
-        <v>0.521478667445938</v>
+        <v>0.5220810647307925</v>
       </c>
       <c r="Y10">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Z10">
         <v>75.5</v>
       </c>
       <c r="AA10">
-        <v>0.4947953396634655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2023</v>
-      </c>
-      <c r="D11">
-        <v>233.5</v>
-      </c>
-      <c r="F11">
-        <v>115.7069805194805</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11">
-        <v>0.5508385744234801</v>
-      </c>
-      <c r="K11">
-        <v>99.96920454545457</v>
-      </c>
-      <c r="L11">
-        <v>115.1288149350649</v>
-      </c>
-      <c r="M11">
-        <v>115.1603571428572</v>
-      </c>
-      <c r="N11">
-        <v>76.51862012987013</v>
-      </c>
-      <c r="O11">
-        <v>0.422649025974026</v>
-      </c>
-      <c r="P11">
-        <v>0.5916785714285713</v>
-      </c>
-      <c r="Q11">
-        <v>0.248712012987013</v>
-      </c>
-      <c r="R11">
-        <v>12.95881493506493</v>
-      </c>
-      <c r="S11">
-        <v>11.31508116883117</v>
-      </c>
-      <c r="T11">
-        <v>0.2055767857142857</v>
-      </c>
-      <c r="U11">
-        <v>1.012309540852848</v>
-      </c>
-      <c r="V11">
-        <v>1.010713265385966</v>
-      </c>
-      <c r="W11">
-        <v>10.99952910247054</v>
-      </c>
-      <c r="X11">
-        <v>0.4863636363636363</v>
-      </c>
-      <c r="Y11">
-        <v>44</v>
-      </c>
-      <c r="Z11">
-        <v>76.19999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>0.4755091291494521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2023</v>
-      </c>
-      <c r="D12">
-        <v>238</v>
-      </c>
-      <c r="F12">
-        <v>115.9553571428571</v>
-      </c>
-      <c r="G12">
-        <v>2.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12">
-        <v>0.5038986354775828</v>
-      </c>
-      <c r="K12">
-        <v>99.18088972431075</v>
-      </c>
-      <c r="L12">
-        <v>116.1247180451128</v>
-      </c>
-      <c r="M12">
-        <v>116.8157581453634</v>
-      </c>
-      <c r="N12">
-        <v>76.11126253132831</v>
-      </c>
-      <c r="O12">
-        <v>0.3758009085213033</v>
-      </c>
-      <c r="P12">
-        <v>0.590717731829574</v>
-      </c>
-      <c r="Q12">
-        <v>0.2975758145363409</v>
-      </c>
-      <c r="R12">
-        <v>12.25653195488722</v>
-      </c>
-      <c r="S12">
-        <v>11.04620927318296</v>
-      </c>
-      <c r="T12">
-        <v>0.2183666979949875</v>
-      </c>
-      <c r="U12">
-        <v>1.014482564679415</v>
-      </c>
-      <c r="V12">
-        <v>1.016498316498317</v>
-      </c>
-      <c r="W12">
-        <v>11.91764636535575</v>
-      </c>
-      <c r="X12">
-        <v>0.469141604010025</v>
-      </c>
-      <c r="Y12">
-        <v>42</v>
-      </c>
-      <c r="Z12">
-        <v>75.05</v>
-      </c>
-      <c r="AA12">
-        <v>0.4663094471054639</v>
+        <v>0.4740337871227711</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -91,61 +91,58 @@
     <t>ratings_2k</t>
   </si>
   <si>
+    <t>win_pct_close</t>
+  </si>
+  <si>
+    <t>mov_a</t>
+  </si>
+  <si>
+    <t>sos</t>
+  </si>
+  <si>
+    <t>injury_gmsc</t>
+  </si>
+  <si>
+    <t>injury_mins</t>
+  </si>
+  <si>
     <t>calc_over_prob</t>
   </si>
   <si>
-    <t>Indiana</t>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>LALakers</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Denver</t>
   </si>
   <si>
     <t>Cleveland</t>
   </si>
   <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
     <t>Toronto</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>LALakers</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>NewOrleans</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
-    <t>OklahomaCity</t>
-  </si>
-  <si>
-    <t>GoldenState</t>
-  </si>
-  <si>
-    <t>Portland</t>
   </si>
 </sst>
 </file>
@@ -503,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +585,23 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -597,76 +609,91 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>232.5</v>
+        <v>238</v>
       </c>
       <c r="F2">
-        <v>116.1822033898305</v>
+        <v>115.2651515151515</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>0.4916741005055011</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="K2">
-        <v>99.05225988700562</v>
+        <v>98.77424242424243</v>
       </c>
       <c r="L2">
-        <v>116.6006497175141</v>
+        <v>116.0727272727273</v>
       </c>
       <c r="M2">
-        <v>114.6872598870057</v>
+        <v>116.1181818181818</v>
       </c>
       <c r="N2">
-        <v>75.91453389830509</v>
+        <v>76.14545454545456</v>
       </c>
       <c r="O2">
-        <v>0.4540964689265535</v>
+        <v>0.3477575757575758</v>
       </c>
       <c r="P2">
-        <v>0.5899411016949152</v>
+        <v>0.5846969696969697</v>
       </c>
       <c r="Q2">
-        <v>0.2589987288135593</v>
+        <v>0.2539242424242424</v>
       </c>
       <c r="R2">
-        <v>12.10983050847458</v>
+        <v>11.61742424242424</v>
       </c>
       <c r="S2">
-        <v>11.83005649717514</v>
+        <v>11.34393939393939</v>
       </c>
       <c r="T2">
-        <v>0.2088283898305084</v>
+        <v>0.2062916666666667</v>
       </c>
       <c r="U2">
-        <v>1.01646722125836</v>
+        <v>1.006682545983856</v>
       </c>
       <c r="V2">
-        <v>1.029708745220725</v>
+        <v>1.025245229904677</v>
       </c>
       <c r="W2">
-        <v>11.07405510240506</v>
+        <v>10.9769890481105</v>
       </c>
       <c r="X2">
-        <v>0.5725988700564972</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="Y2">
-        <v>39.5</v>
+        <v>41</v>
       </c>
       <c r="Z2">
-        <v>77.25</v>
+        <v>76.44999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.5147894100714879</v>
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="AB2">
+        <v>0.4892342677142908</v>
+      </c>
+      <c r="AC2">
+        <v>-0.84</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0.4767275038583401</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,76 +701,91 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>222.5</v>
+        <v>232.5</v>
       </c>
       <c r="F3">
-        <v>114.4194220616838</v>
+        <v>114.7879953379953</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>0.4752709085857183</v>
+        <v>0.515625</v>
       </c>
       <c r="K3">
-        <v>96.3146846346207</v>
+        <v>96.88031468531469</v>
       </c>
       <c r="L3">
-        <v>117.9316615726591</v>
+        <v>117.8888578088578</v>
       </c>
       <c r="M3">
-        <v>112.8200889135871</v>
+        <v>116.3981701631702</v>
       </c>
       <c r="N3">
-        <v>77.62970269519312</v>
+        <v>76.56289044289045</v>
       </c>
       <c r="O3">
-        <v>0.3656968602389553</v>
+        <v>0.4052550116550117</v>
       </c>
       <c r="P3">
-        <v>0.6024366490691858</v>
+        <v>0.6032863636363638</v>
       </c>
       <c r="Q3">
-        <v>0.2685429285912754</v>
+        <v>0.3054315850815851</v>
       </c>
       <c r="R3">
-        <v>12.47414559599889</v>
+        <v>12.25202797202797</v>
       </c>
       <c r="S3">
-        <v>12.62697971658794</v>
+        <v>12.0880303030303</v>
       </c>
       <c r="T3">
-        <v>0.2068174492914699</v>
+        <v>0.2347561771561771</v>
       </c>
       <c r="U3">
-        <v>1.001044812438179</v>
+        <v>1.002515243126597</v>
       </c>
       <c r="V3">
-        <v>0.9829776545556644</v>
+        <v>1.048106413004679</v>
       </c>
       <c r="W3">
-        <v>10.90610648038377</v>
+        <v>12.49045328081325</v>
       </c>
       <c r="X3">
-        <v>0.6589330369547097</v>
+        <v>0.5656177156177156</v>
       </c>
       <c r="Y3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Z3">
-        <v>76.15000000000001</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.4672367535391297</v>
+        <v>0.6068111455108359</v>
+      </c>
+      <c r="AB3">
+        <v>0.4833222025422279</v>
+      </c>
+      <c r="AC3">
+        <v>-2.99</v>
+      </c>
+      <c r="AD3">
+        <v>0.01991061713665069</v>
+      </c>
+      <c r="AE3">
+        <v>0.03268886784511784</v>
+      </c>
+      <c r="AF3">
+        <v>0.4921748454552275</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -751,76 +793,91 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>227</v>
+        <v>226.5</v>
       </c>
       <c r="F4">
-        <v>111.5847457627119</v>
+        <v>114.4447082767978</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>0.5214761040532365</v>
+        <v>0.4544202066590126</v>
       </c>
       <c r="K4">
-        <v>98.66525423728817</v>
+        <v>99.28700814111264</v>
       </c>
       <c r="L4">
-        <v>112.3262711864406</v>
+        <v>115.0235639981909</v>
       </c>
       <c r="M4">
-        <v>117.5194915254237</v>
+        <v>114.6619063772049</v>
       </c>
       <c r="N4">
-        <v>75.50169491525423</v>
+        <v>74.18352555404795</v>
       </c>
       <c r="O4">
-        <v>0.3709406779661015</v>
+        <v>0.3885185436454094</v>
       </c>
       <c r="P4">
-        <v>0.571364406779661</v>
+        <v>0.5993142243328812</v>
       </c>
       <c r="Q4">
-        <v>0.3061949152542373</v>
+        <v>0.2621944821347806</v>
       </c>
       <c r="R4">
-        <v>12.87033898305085</v>
+        <v>12.81590909090909</v>
       </c>
       <c r="S4">
-        <v>12.18135593220339</v>
+        <v>12.38699683401176</v>
       </c>
       <c r="T4">
-        <v>0.2298008474576271</v>
+        <v>0.2137676390773405</v>
       </c>
       <c r="U4">
-        <v>0.976244494861871</v>
+        <v>0.9995171028541295</v>
       </c>
       <c r="V4">
-        <v>1.016752366452033</v>
+        <v>0.982964370214105</v>
       </c>
       <c r="W4">
-        <v>11.19434640197002</v>
+        <v>11.09079777183898</v>
       </c>
       <c r="X4">
-        <v>0.3305084745762712</v>
+        <v>0.5340343735866124</v>
       </c>
       <c r="Y4">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="Z4">
-        <v>74.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.4864970743784106</v>
+        <v>0.5541795665634675</v>
+      </c>
+      <c r="AB4">
+        <v>0.5074743924237036</v>
+      </c>
+      <c r="AC4">
+        <v>1.675</v>
+      </c>
+      <c r="AD4">
+        <v>0.1194244480688301</v>
+      </c>
+      <c r="AE4">
+        <v>0.09445973258706469</v>
+      </c>
+      <c r="AF4">
+        <v>0.4721078135218727</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -828,76 +885,91 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F5">
-        <v>115.2368421052632</v>
+        <v>114.4474358974359</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>0.5219155844155844</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="K5">
-        <v>98.72982456140352</v>
+        <v>99.18613053613051</v>
       </c>
       <c r="L5">
-        <v>116.1140350877193</v>
+        <v>114.9565151515152</v>
       </c>
       <c r="M5">
-        <v>112.2236842105264</v>
+        <v>117.9232051282052</v>
       </c>
       <c r="N5">
-        <v>76.44122807017541</v>
+        <v>76.30695804195807</v>
       </c>
       <c r="O5">
-        <v>0.3736578947368421</v>
+        <v>0.3500712121212121</v>
       </c>
       <c r="P5">
-        <v>0.5827631578947369</v>
+        <v>0.5823002331002329</v>
       </c>
       <c r="Q5">
-        <v>0.2855350877192982</v>
+        <v>0.2476439393939394</v>
       </c>
       <c r="R5">
-        <v>11.80964912280702</v>
+        <v>12.81610722610722</v>
       </c>
       <c r="S5">
-        <v>12.81666666666666</v>
+        <v>11.7270979020979</v>
       </c>
       <c r="T5">
-        <v>0.2168114035087719</v>
+        <v>0.1960390442890443</v>
       </c>
       <c r="U5">
-        <v>1.008196343878068</v>
+        <v>0.9995409248684357</v>
       </c>
       <c r="V5">
-        <v>1.006548579013775</v>
+        <v>0.9572782194730836</v>
       </c>
       <c r="W5">
-        <v>11.74619852777213</v>
+        <v>10.82041335761248</v>
       </c>
       <c r="X5">
-        <v>0.6403508771929824</v>
+        <v>0.4715617715617716</v>
       </c>
       <c r="Y5">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Z5">
-        <v>75.7</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.4980496117560247</v>
+        <v>0.6022727272727273</v>
+      </c>
+      <c r="AB5">
+        <v>0.490439600271914</v>
+      </c>
+      <c r="AC5">
+        <v>1.09</v>
+      </c>
+      <c r="AD5">
+        <v>0.01483523696993566</v>
+      </c>
+      <c r="AE5">
+        <v>0.01842171717171717</v>
+      </c>
+      <c r="AF5">
+        <v>0.4903757036563239</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -905,76 +977,91 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>226</v>
+        <v>212.5</v>
       </c>
       <c r="F6">
-        <v>114.1101694915254</v>
+        <v>110.1347673397717</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>0.5593220338983051</v>
+        <v>0.4591747146619842</v>
       </c>
       <c r="K6">
-        <v>97.85847457627119</v>
+        <v>95.25377524143984</v>
       </c>
       <c r="L6">
-        <v>115.706779661017</v>
+        <v>114.6409569798069</v>
       </c>
       <c r="M6">
-        <v>114.5720338983051</v>
+        <v>112.1865671641791</v>
       </c>
       <c r="N6">
-        <v>77.03813559322035</v>
+        <v>77.86341088674276</v>
       </c>
       <c r="O6">
-        <v>0.3505508474576272</v>
+        <v>0.3885240342405618</v>
       </c>
       <c r="P6">
-        <v>0.5695932203389831</v>
+        <v>0.5794068261633012</v>
       </c>
       <c r="Q6">
-        <v>0.282364406779661</v>
+        <v>0.2723587576821774</v>
       </c>
       <c r="R6">
-        <v>11.36186440677966</v>
+        <v>11.86626426690079</v>
       </c>
       <c r="S6">
-        <v>13.73389830508474</v>
+        <v>13.84224100087796</v>
       </c>
       <c r="T6">
-        <v>0.2210805084745762</v>
+        <v>0.2128852611940299</v>
       </c>
       <c r="U6">
-        <v>0.998339190652016</v>
+        <v>0.9618756972905828</v>
       </c>
       <c r="V6">
-        <v>0.9790972090364114</v>
+        <v>1.034133414480315</v>
       </c>
       <c r="W6">
-        <v>10.29313616501341</v>
+        <v>10.04072387113695</v>
       </c>
       <c r="X6">
-        <v>0.4915254237288136</v>
+        <v>0.570017559262511</v>
       </c>
       <c r="Y6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z6">
-        <v>76.15000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="AA6">
-        <v>0.4948919009376189</v>
+        <v>0.4847972972972973</v>
+      </c>
+      <c r="AB6">
+        <v>0.5005077024412908</v>
+      </c>
+      <c r="AC6">
+        <v>3.135</v>
+      </c>
+      <c r="AD6">
+        <v>0.0520353822547161</v>
+      </c>
+      <c r="AE6">
+        <v>0.06331364013266996</v>
+      </c>
+      <c r="AF6">
+        <v>0.5034275981914617</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,304 +1069,88 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>237.5</v>
+        <v>224.5</v>
       </c>
       <c r="F7">
-        <v>112.7203389830509</v>
+        <v>114.5122116689281</v>
       </c>
       <c r="G7">
-        <v>14.5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>0.5644736842105263</v>
+        <v>0.5261194029850746</v>
       </c>
       <c r="K7">
-        <v>97.80063559322033</v>
+        <v>98.93542514699232</v>
       </c>
       <c r="L7">
-        <v>114.288884180791</v>
+        <v>114.8607982813207</v>
       </c>
       <c r="M7">
-        <v>119.0446610169492</v>
+        <v>115.0611940298507</v>
       </c>
       <c r="N7">
-        <v>75.76508474576272</v>
+        <v>76.59430122116687</v>
       </c>
       <c r="O7">
-        <v>0.4118829096045197</v>
+        <v>0.3501333107191316</v>
       </c>
       <c r="P7">
-        <v>0.5778872881355933</v>
+        <v>0.566199118046133</v>
       </c>
       <c r="Q7">
-        <v>0.275907627118644</v>
+        <v>0.2830313206693804</v>
       </c>
       <c r="R7">
-        <v>12.06532485875706</v>
+        <v>10.96904115784713</v>
       </c>
       <c r="S7">
-        <v>11.73139830508475</v>
+        <v>12.51837403889643</v>
       </c>
       <c r="T7">
-        <v>0.2119942796610169</v>
+        <v>0.2124548846675712</v>
       </c>
       <c r="U7">
-        <v>0.98617969363999</v>
+        <v>1.000106652130376</v>
       </c>
       <c r="V7">
-        <v>1.009759102789509</v>
+        <v>0.9551570974265233</v>
       </c>
       <c r="W7">
-        <v>11.14153430933071</v>
+        <v>10.46864823489092</v>
       </c>
       <c r="X7">
-        <v>0.3769774011299435</v>
+        <v>0.4812302125734962</v>
       </c>
       <c r="Y7">
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="Z7">
-        <v>74.25</v>
+        <v>74.95</v>
       </c>
       <c r="AA7">
-        <v>0.5165661907714419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2023</v>
-      </c>
-      <c r="D8">
-        <v>240.5</v>
-      </c>
-      <c r="F8">
-        <v>117.730701754386</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8">
-        <v>0.5691347011596788</v>
-      </c>
-      <c r="K8">
-        <v>99.96938596491228</v>
-      </c>
-      <c r="L8">
-        <v>116.8641666666667</v>
-      </c>
-      <c r="M8">
-        <v>115.9775438596491</v>
-      </c>
-      <c r="N8">
-        <v>73.76627192982455</v>
-      </c>
-      <c r="O8">
-        <v>0.3988868421052632</v>
-      </c>
-      <c r="P8">
-        <v>0.5831324561403506</v>
-      </c>
-      <c r="Q8">
-        <v>0.2619907894736842</v>
-      </c>
-      <c r="R8">
-        <v>12.03767543859649</v>
-      </c>
-      <c r="S8">
-        <v>12.53298245614035</v>
-      </c>
-      <c r="T8">
-        <v>0.2140616228070175</v>
-      </c>
-      <c r="U8">
-        <v>1.030014888489816</v>
-      </c>
-      <c r="V8">
-        <v>1.0263220926661</v>
-      </c>
-      <c r="W8">
-        <v>11.39161062614853</v>
-      </c>
-      <c r="X8">
-        <v>0.487280701754386</v>
-      </c>
-      <c r="Y8">
-        <v>23.5</v>
-      </c>
-      <c r="Z8">
-        <v>74.34999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>0.4878405815256194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
-      <c r="D9">
-        <v>238.5</v>
-      </c>
-      <c r="F9">
-        <v>117.8188194038574</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9">
-        <v>0.5752118644067796</v>
-      </c>
-      <c r="K9">
-        <v>101.3956165984804</v>
-      </c>
-      <c r="L9">
-        <v>115.1713325540619</v>
-      </c>
-      <c r="M9">
-        <v>115.7277030976038</v>
-      </c>
-      <c r="N9">
-        <v>76.20055523085912</v>
-      </c>
-      <c r="O9">
-        <v>0.4113633839859732</v>
-      </c>
-      <c r="P9">
-        <v>0.5903826709526592</v>
-      </c>
-      <c r="Q9">
-        <v>0.2581227352425483</v>
-      </c>
-      <c r="R9">
-        <v>12.74040035067212</v>
-      </c>
-      <c r="S9">
-        <v>11.35952659263589</v>
-      </c>
-      <c r="T9">
-        <v>0.2032233343074226</v>
-      </c>
-      <c r="U9">
-        <v>1.030785821556058</v>
-      </c>
-      <c r="V9">
-        <v>0.9985815435608614</v>
-      </c>
-      <c r="W9">
-        <v>11.0448316658053</v>
-      </c>
-      <c r="X9">
-        <v>0.4788135593220339</v>
-      </c>
-      <c r="Y9">
-        <v>48.5</v>
-      </c>
-      <c r="Z9">
-        <v>75.65000000000001</v>
-      </c>
-      <c r="AA9">
-        <v>0.468069482260938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2023</v>
-      </c>
-      <c r="D10">
-        <v>240.5</v>
-      </c>
-      <c r="F10">
-        <v>117.1677253478524</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10">
-        <v>0.4821428571428572</v>
-      </c>
-      <c r="K10">
-        <v>98.56624319419234</v>
-      </c>
-      <c r="L10">
-        <v>118.3398215366001</v>
-      </c>
-      <c r="M10">
-        <v>117.4650786448881</v>
-      </c>
-      <c r="N10">
-        <v>76.65511191772535</v>
-      </c>
-      <c r="O10">
-        <v>0.4140003024803387</v>
-      </c>
-      <c r="P10">
-        <v>0.6044671808832427</v>
-      </c>
-      <c r="Q10">
-        <v>0.2941643980641259</v>
-      </c>
-      <c r="R10">
-        <v>12.39467634603751</v>
-      </c>
-      <c r="S10">
-        <v>11.89913793103448</v>
-      </c>
-      <c r="T10">
-        <v>0.2231632637628554</v>
-      </c>
-      <c r="U10">
-        <v>1.025089460611132</v>
-      </c>
-      <c r="V10">
-        <v>1.01463041418264</v>
-      </c>
-      <c r="W10">
-        <v>12.43665165612157</v>
-      </c>
-      <c r="X10">
-        <v>0.5220810647307925</v>
-      </c>
-      <c r="Y10">
-        <v>37</v>
-      </c>
-      <c r="Z10">
-        <v>75.5</v>
-      </c>
-      <c r="AA10">
-        <v>0.4740337871227711</v>
+        <v>0.4186602870813397</v>
+      </c>
+      <c r="AB7">
+        <v>0.4859989860865058</v>
+      </c>
+      <c r="AC7">
+        <v>-0.355</v>
+      </c>
+      <c r="AD7">
+        <v>0.1330657068772227</v>
+      </c>
+      <c r="AE7">
+        <v>0.06879787457912456</v>
+      </c>
+      <c r="AF7">
+        <v>0.4792175692493517</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -109,40 +109,40 @@
     <t>calc_over_prob</t>
   </si>
   <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>NewOrleans</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
+  </si>
+  <si>
+    <t>LALakers</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>LALakers</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
     <t>Portland</t>
   </si>
   <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>Toronto</t>
+    <t>OklahomaCity</t>
+  </si>
+  <si>
+    <t>NewYork</t>
   </si>
 </sst>
 </file>
@@ -609,13 +609,13 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>238</v>
+        <v>230.5</v>
       </c>
       <c r="F2">
-        <v>115.2651515151515</v>
+        <v>115.3134328358209</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -624,73 +624,73 @@
         <v>37</v>
       </c>
       <c r="J2">
-        <v>0.5378787878787878</v>
+        <v>0.4810040705563093</v>
       </c>
       <c r="K2">
-        <v>98.77424242424243</v>
+        <v>97.91716417910447</v>
       </c>
       <c r="L2">
-        <v>116.0727272727273</v>
+        <v>117.3813432835821</v>
       </c>
       <c r="M2">
-        <v>116.1181818181818</v>
+        <v>114.905223880597</v>
       </c>
       <c r="N2">
-        <v>76.14545454545456</v>
+        <v>75.66417910447763</v>
       </c>
       <c r="O2">
-        <v>0.3477575757575758</v>
+        <v>0.3766865671641791</v>
       </c>
       <c r="P2">
-        <v>0.5846969696969697</v>
+        <v>0.605910447761194</v>
       </c>
       <c r="Q2">
-        <v>0.2539242424242424</v>
+        <v>0.2581940298507462</v>
       </c>
       <c r="R2">
-        <v>11.61742424242424</v>
+        <v>12.46268656716418</v>
       </c>
       <c r="S2">
-        <v>11.34393939393939</v>
+        <v>11.73880597014925</v>
       </c>
       <c r="T2">
-        <v>0.2062916666666667</v>
+        <v>0.2062873134328358</v>
       </c>
       <c r="U2">
-        <v>1.006682545983856</v>
+        <v>1.007104216906733</v>
       </c>
       <c r="V2">
-        <v>1.025245229904677</v>
+        <v>0.9964331101750119</v>
       </c>
       <c r="W2">
-        <v>10.9769890481105</v>
+        <v>11.1887378492184</v>
       </c>
       <c r="X2">
-        <v>0.4848484848484849</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="Y2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z2">
-        <v>76.44999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="AA2">
-        <v>0.5527777777777778</v>
+        <v>0.675</v>
       </c>
       <c r="AB2">
-        <v>0.4892342677142908</v>
+        <v>0.4981695965774935</v>
       </c>
       <c r="AC2">
-        <v>-0.84</v>
+        <v>1.49</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01458111551985547</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01814676616915423</v>
       </c>
       <c r="AF2">
-        <v>0.4767275038583401</v>
+        <v>0.4831421635670515</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -701,13 +701,13 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>232.5</v>
+        <v>220</v>
       </c>
       <c r="F3">
-        <v>114.7879953379953</v>
+        <v>111.9045183290708</v>
       </c>
       <c r="G3">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -716,73 +716,73 @@
         <v>38</v>
       </c>
       <c r="J3">
-        <v>0.515625</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="K3">
-        <v>96.88031468531469</v>
+        <v>97.59555626598464</v>
       </c>
       <c r="L3">
-        <v>117.8888578088578</v>
+        <v>113.6208333333334</v>
       </c>
       <c r="M3">
-        <v>116.3981701631702</v>
+        <v>113.6588341858482</v>
       </c>
       <c r="N3">
-        <v>76.56289044289045</v>
+        <v>76.5110400682012</v>
       </c>
       <c r="O3">
-        <v>0.4052550116550117</v>
+        <v>0.3654807118499573</v>
       </c>
       <c r="P3">
-        <v>0.6032863636363638</v>
+        <v>0.5712084398976982</v>
       </c>
       <c r="Q3">
-        <v>0.3054315850815851</v>
+        <v>0.2664077152600172</v>
       </c>
       <c r="R3">
-        <v>12.25202797202797</v>
+        <v>11.73751065643649</v>
       </c>
       <c r="S3">
-        <v>12.0880303030303</v>
+        <v>12.93559249786871</v>
       </c>
       <c r="T3">
-        <v>0.2347561771561771</v>
+        <v>0.2075799232736573</v>
       </c>
       <c r="U3">
-        <v>1.002515243126597</v>
+        <v>0.9773320378084782</v>
       </c>
       <c r="V3">
-        <v>1.048106413004679</v>
+        <v>0.9650809637243728</v>
       </c>
       <c r="W3">
-        <v>12.49045328081325</v>
+        <v>11.07521281995384</v>
       </c>
       <c r="X3">
-        <v>0.5656177156177156</v>
+        <v>0.4661125319693095</v>
       </c>
       <c r="Y3">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="Z3">
-        <v>75.65000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.6068111455108359</v>
+        <v>0.4098039215686274</v>
       </c>
       <c r="AB3">
-        <v>0.4833222025422279</v>
+        <v>0.4974140250207192</v>
       </c>
       <c r="AC3">
-        <v>-2.99</v>
+        <v>1.285</v>
       </c>
       <c r="AD3">
-        <v>0.01991061713665069</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03268886784511784</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4921748454552275</v>
+        <v>0.5140153480374476</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -793,13 +793,13 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>226.5</v>
+        <v>227.5</v>
       </c>
       <c r="F4">
-        <v>114.4447082767978</v>
+        <v>114.157394843962</v>
       </c>
       <c r="G4">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -808,73 +808,73 @@
         <v>39</v>
       </c>
       <c r="J4">
-        <v>0.4544202066590126</v>
+        <v>0.5307692307692308</v>
       </c>
       <c r="K4">
-        <v>99.28700814111264</v>
+        <v>97.12055630936229</v>
       </c>
       <c r="L4">
-        <v>115.0235639981909</v>
+        <v>116.9424016282225</v>
       </c>
       <c r="M4">
-        <v>114.6619063772049</v>
+        <v>115.0138738127544</v>
       </c>
       <c r="N4">
-        <v>74.18352555404795</v>
+        <v>76.93602442333787</v>
       </c>
       <c r="O4">
-        <v>0.3885185436454094</v>
+        <v>0.3770835594753505</v>
       </c>
       <c r="P4">
-        <v>0.5993142243328812</v>
+        <v>0.5982395974672094</v>
       </c>
       <c r="Q4">
-        <v>0.2621944821347806</v>
+        <v>0.2867357530529172</v>
       </c>
       <c r="R4">
-        <v>12.81590909090909</v>
+        <v>12.11282225237449</v>
       </c>
       <c r="S4">
-        <v>12.38699683401176</v>
+        <v>11.60120985979195</v>
       </c>
       <c r="T4">
-        <v>0.2137676390773405</v>
+        <v>0.2217438941655359</v>
       </c>
       <c r="U4">
-        <v>0.9995171028541295</v>
+        <v>0.9970078152311093</v>
       </c>
       <c r="V4">
-        <v>0.982964370214105</v>
+        <v>1.065397554070877</v>
       </c>
       <c r="W4">
-        <v>11.09079777183898</v>
+        <v>11.60329838741389</v>
       </c>
       <c r="X4">
-        <v>0.5340343735866124</v>
+        <v>0.5646766169154229</v>
       </c>
       <c r="Y4">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z4">
-        <v>76.09999999999999</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.5541795665634675</v>
+        <v>0.6277777777777778</v>
       </c>
       <c r="AB4">
-        <v>0.5074743924237036</v>
+        <v>0.4857859310167468</v>
       </c>
       <c r="AC4">
-        <v>1.675</v>
+        <v>-0.3300000000000001</v>
       </c>
       <c r="AD4">
-        <v>0.1194244480688301</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.09445973258706469</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.4721078135218727</v>
+        <v>0.4865730634360924</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -885,13 +885,13 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>230.5</v>
       </c>
       <c r="F5">
-        <v>114.4474358974359</v>
+        <v>114.3513116236997</v>
       </c>
       <c r="G5">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -900,73 +900,73 @@
         <v>40</v>
       </c>
       <c r="J5">
-        <v>0.5357142857142857</v>
+        <v>0.4847301951779563</v>
       </c>
       <c r="K5">
-        <v>99.18613053613051</v>
+        <v>97.90226142017184</v>
       </c>
       <c r="L5">
-        <v>114.9565151515152</v>
+        <v>116.1303256445048</v>
       </c>
       <c r="M5">
-        <v>117.9232051282052</v>
+        <v>116.4183061962913</v>
       </c>
       <c r="N5">
-        <v>76.30695804195807</v>
+        <v>76.42901402080508</v>
       </c>
       <c r="O5">
-        <v>0.3500712121212121</v>
+        <v>0.382421867933062</v>
       </c>
       <c r="P5">
-        <v>0.5823002331002329</v>
+        <v>0.5901792175486207</v>
       </c>
       <c r="Q5">
-        <v>0.2476439393939394</v>
+        <v>0.2938032564450475</v>
       </c>
       <c r="R5">
-        <v>12.81610722610722</v>
+        <v>12.569855269109</v>
       </c>
       <c r="S5">
-        <v>11.7270979020979</v>
+        <v>12.20900045228403</v>
       </c>
       <c r="T5">
-        <v>0.1960390442890443</v>
+        <v>0.2244795906829489</v>
       </c>
       <c r="U5">
-        <v>0.9995409248684357</v>
+        <v>0.9987014115606959</v>
       </c>
       <c r="V5">
-        <v>0.9572782194730836</v>
+        <v>0.9357113316933782</v>
       </c>
       <c r="W5">
-        <v>10.82041335761248</v>
+        <v>11.47363797512983</v>
       </c>
       <c r="X5">
-        <v>0.4715617715617716</v>
+        <v>0.473767526006332</v>
       </c>
       <c r="Y5">
-        <v>37</v>
+        <v>42.5</v>
       </c>
       <c r="Z5">
-        <v>74.15000000000001</v>
+        <v>76.25</v>
       </c>
       <c r="AA5">
-        <v>0.6022727272727273</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="AB5">
-        <v>0.490439600271914</v>
+        <v>0.5029450642138835</v>
       </c>
       <c r="AC5">
-        <v>1.09</v>
+        <v>-4.695</v>
       </c>
       <c r="AD5">
-        <v>0.01483523696993566</v>
+        <v>0.1412615710230504</v>
       </c>
       <c r="AE5">
-        <v>0.01842171717171717</v>
+        <v>0.1307834957158651</v>
       </c>
       <c r="AF5">
-        <v>0.4903757036563239</v>
+        <v>0.457843756037993</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -977,13 +977,13 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>212.5</v>
+        <v>237.5</v>
       </c>
       <c r="F6">
-        <v>110.1347673397717</v>
+        <v>115.2424242424242</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
@@ -992,73 +992,73 @@
         <v>41</v>
       </c>
       <c r="J6">
-        <v>0.4591747146619842</v>
+        <v>0.5875699626865671</v>
       </c>
       <c r="K6">
-        <v>95.25377524143984</v>
+        <v>100.6174242424242</v>
       </c>
       <c r="L6">
-        <v>114.6409569798069</v>
+        <v>113.6886363636364</v>
       </c>
       <c r="M6">
-        <v>112.1865671641791</v>
+        <v>118.0416666666667</v>
       </c>
       <c r="N6">
-        <v>77.86341088674276</v>
+        <v>74.13712121212122</v>
       </c>
       <c r="O6">
-        <v>0.3885240342405618</v>
+        <v>0.3527348484848485</v>
       </c>
       <c r="P6">
-        <v>0.5794068261633012</v>
+        <v>0.5662196969696969</v>
       </c>
       <c r="Q6">
-        <v>0.2723587576821774</v>
+        <v>0.2430909090909091</v>
       </c>
       <c r="R6">
-        <v>11.86626426690079</v>
+        <v>11.9969696969697</v>
       </c>
       <c r="S6">
-        <v>13.84224100087796</v>
+        <v>12.88787878787879</v>
       </c>
       <c r="T6">
-        <v>0.2128852611940299</v>
+        <v>0.2034469696969697</v>
       </c>
       <c r="U6">
-        <v>0.9618756972905828</v>
+        <v>1.006484054518989</v>
       </c>
       <c r="V6">
-        <v>1.034133414480315</v>
+        <v>1.034023897491248</v>
       </c>
       <c r="W6">
-        <v>10.04072387113695</v>
+        <v>11.59518142333837</v>
       </c>
       <c r="X6">
-        <v>0.570017559262511</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="Y6">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="Z6">
-        <v>76.7</v>
+        <v>73.80000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.4847972972972973</v>
+        <v>0.3851674641148325</v>
       </c>
       <c r="AB6">
-        <v>0.5005077024412908</v>
+        <v>0.5000213014461756</v>
       </c>
       <c r="AC6">
-        <v>3.135</v>
+        <v>-3.94</v>
       </c>
       <c r="AD6">
-        <v>0.0520353822547161</v>
+        <v>0.02036293476560462</v>
       </c>
       <c r="AE6">
-        <v>0.06331364013266996</v>
+        <v>0.02138415404040404</v>
       </c>
       <c r="AF6">
-        <v>0.5034275981914617</v>
+        <v>0.4924064783506635</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1069,13 +1069,13 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>224.5</v>
+        <v>225.5</v>
       </c>
       <c r="F7">
-        <v>114.5122116689281</v>
+        <v>116.0273266022827</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
@@ -1084,73 +1084,73 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <v>0.5261194029850746</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="K7">
-        <v>98.93542514699232</v>
+        <v>98.68252853380157</v>
       </c>
       <c r="L7">
-        <v>114.8607982813207</v>
+        <v>116.1953577699737</v>
       </c>
       <c r="M7">
-        <v>115.0611940298507</v>
+        <v>115.0210381913959</v>
       </c>
       <c r="N7">
-        <v>76.59430122116687</v>
+        <v>76.51334503950832</v>
       </c>
       <c r="O7">
-        <v>0.3501333107191316</v>
+        <v>0.3730020851624233</v>
       </c>
       <c r="P7">
-        <v>0.566199118046133</v>
+        <v>0.5765320456540826</v>
       </c>
       <c r="Q7">
-        <v>0.2830313206693804</v>
+        <v>0.2907157594381036</v>
       </c>
       <c r="R7">
-        <v>10.96904115784713</v>
+        <v>11.25847234416155</v>
       </c>
       <c r="S7">
-        <v>12.51837403889643</v>
+        <v>10.60206321334504</v>
       </c>
       <c r="T7">
-        <v>0.2124548846675712</v>
+        <v>0.2104190079016681</v>
       </c>
       <c r="U7">
-        <v>1.000106652130376</v>
+        <v>1.013339096963168</v>
       </c>
       <c r="V7">
-        <v>0.9551570974265233</v>
+        <v>1.005596910445933</v>
       </c>
       <c r="W7">
-        <v>10.46864823489092</v>
+        <v>10.87727887773243</v>
       </c>
       <c r="X7">
-        <v>0.4812302125734962</v>
+        <v>0.5330333625987709</v>
       </c>
       <c r="Y7">
-        <v>45.5</v>
+        <v>41.5</v>
       </c>
       <c r="Z7">
-        <v>74.95</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.4186602870813397</v>
+        <v>0.5463659147869674</v>
       </c>
       <c r="AB7">
-        <v>0.4859989860865058</v>
+        <v>0.5096070111434863</v>
       </c>
       <c r="AC7">
-        <v>-0.355</v>
+        <v>-1.545</v>
       </c>
       <c r="AD7">
-        <v>0.1330657068772227</v>
+        <v>0.1289987059742818</v>
       </c>
       <c r="AE7">
-        <v>0.06879787457912456</v>
+        <v>0.06672505527915974</v>
       </c>
       <c r="AF7">
-        <v>0.4792175692493517</v>
+        <v>0.4796797761337289</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -109,40 +109,46 @@
     <t>calc_over_prob</t>
   </si>
   <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>NewOrleans</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
-    <t>LALakers</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>OklahomaCity</t>
-  </si>
-  <si>
-    <t>NewYork</t>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>GoldenState</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,88 +615,88 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>230.5</v>
+        <v>226.5</v>
       </c>
       <c r="F2">
-        <v>115.3134328358209</v>
+        <v>113.5735294117647</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2">
-        <v>0.4810040705563093</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="K2">
-        <v>97.91716417910447</v>
+        <v>99.55073529411763</v>
       </c>
       <c r="L2">
-        <v>117.3813432835821</v>
+        <v>113.4705882352941</v>
       </c>
       <c r="M2">
-        <v>114.905223880597</v>
+        <v>118.2963235294118</v>
       </c>
       <c r="N2">
-        <v>75.66417910447763</v>
+        <v>73.59264705882353</v>
       </c>
       <c r="O2">
-        <v>0.3766865671641791</v>
+        <v>0.4004999999999999</v>
       </c>
       <c r="P2">
-        <v>0.605910447761194</v>
+        <v>0.5714411764705882</v>
       </c>
       <c r="Q2">
-        <v>0.2581940298507462</v>
+        <v>0.284375</v>
       </c>
       <c r="R2">
-        <v>12.46268656716418</v>
+        <v>12.47573529411765</v>
       </c>
       <c r="S2">
-        <v>11.73880597014925</v>
+        <v>12.27941176470589</v>
       </c>
       <c r="T2">
-        <v>0.2062873134328358</v>
+        <v>0.2275845588235293</v>
       </c>
       <c r="U2">
-        <v>1.007104216906733</v>
+        <v>0.9919085538145389</v>
       </c>
       <c r="V2">
-        <v>0.9964331101750119</v>
+        <v>1.074257995036756</v>
       </c>
       <c r="W2">
-        <v>11.1887378492184</v>
+        <v>11.7836500394311</v>
       </c>
       <c r="X2">
-        <v>0.6268656716417911</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="Y2">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="Z2">
-        <v>75.8</v>
+        <v>75.05000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.675</v>
+        <v>0.3462732919254659</v>
       </c>
       <c r="AB2">
-        <v>0.4981695965774935</v>
+        <v>0.4923062650374564</v>
       </c>
       <c r="AC2">
-        <v>1.49</v>
+        <v>-5.305</v>
       </c>
       <c r="AD2">
-        <v>0.01458111551985547</v>
+        <v>0.5731698060805751</v>
       </c>
       <c r="AE2">
-        <v>0.01814676616915423</v>
+        <v>0.4497074142156863</v>
       </c>
       <c r="AF2">
-        <v>0.4831421635670515</v>
+        <v>0.4960614951192897</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -701,88 +707,88 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>244.5</v>
       </c>
       <c r="F3">
-        <v>111.9045183290708</v>
+        <v>116.3455882352941</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>0.4565217391304348</v>
+        <v>0.5220588235294117</v>
       </c>
       <c r="K3">
-        <v>97.59555626598464</v>
+        <v>100.2169117647059</v>
       </c>
       <c r="L3">
-        <v>113.6208333333334</v>
+        <v>115.4102941176471</v>
       </c>
       <c r="M3">
-        <v>113.6588341858482</v>
+        <v>115.5125</v>
       </c>
       <c r="N3">
-        <v>76.5110400682012</v>
+        <v>75.175</v>
       </c>
       <c r="O3">
-        <v>0.3654807118499573</v>
+        <v>0.3585514705882353</v>
       </c>
       <c r="P3">
-        <v>0.5712084398976982</v>
+        <v>0.5865661764705885</v>
       </c>
       <c r="Q3">
-        <v>0.2664077152600172</v>
+        <v>0.2554705882352941</v>
       </c>
       <c r="R3">
-        <v>11.73751065643649</v>
+        <v>12.09044117647059</v>
       </c>
       <c r="S3">
-        <v>12.93559249786871</v>
+        <v>12.55147058823529</v>
       </c>
       <c r="T3">
-        <v>0.2075799232736573</v>
+        <v>0.2114779411764706</v>
       </c>
       <c r="U3">
-        <v>0.9773320378084782</v>
+        <v>1.016118674544053</v>
       </c>
       <c r="V3">
-        <v>0.9650809637243728</v>
+        <v>1.025677006274918</v>
       </c>
       <c r="W3">
-        <v>11.07521281995384</v>
+        <v>10.88176881783746</v>
       </c>
       <c r="X3">
-        <v>0.4661125319693095</v>
+        <v>0.5</v>
       </c>
       <c r="Y3">
-        <v>40.5</v>
+        <v>48</v>
       </c>
       <c r="Z3">
-        <v>76.40000000000001</v>
+        <v>76.25</v>
       </c>
       <c r="AA3">
-        <v>0.4098039215686274</v>
+        <v>0.525</v>
       </c>
       <c r="AB3">
-        <v>0.4974140250207192</v>
+        <v>0.4997640803003665</v>
       </c>
       <c r="AC3">
-        <v>1.285</v>
+        <v>2.04</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.07389385433594325</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.05870506535947714</v>
       </c>
       <c r="AF3">
-        <v>0.5140153480374476</v>
+        <v>0.4913680646396232</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -793,88 +799,88 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>227.5</v>
+        <v>224.5</v>
       </c>
       <c r="F4">
-        <v>114.157394843962</v>
+        <v>114.8424688057041</v>
       </c>
       <c r="G4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>0.5307692307692308</v>
+        <v>0.4948694029850746</v>
       </c>
       <c r="K4">
-        <v>97.12055630936229</v>
+        <v>98.06198752228164</v>
       </c>
       <c r="L4">
-        <v>116.9424016282225</v>
+        <v>116.329055258467</v>
       </c>
       <c r="M4">
-        <v>115.0138738127544</v>
+        <v>114.0671122994653</v>
       </c>
       <c r="N4">
-        <v>76.93602442333787</v>
+        <v>76.18863636363636</v>
       </c>
       <c r="O4">
-        <v>0.3770835594753505</v>
+        <v>0.4255871212121212</v>
       </c>
       <c r="P4">
-        <v>0.5982395974672094</v>
+        <v>0.5814988859180037</v>
       </c>
       <c r="Q4">
-        <v>0.2867357530529172</v>
+        <v>0.2928224153297683</v>
       </c>
       <c r="R4">
-        <v>12.11282225237449</v>
+        <v>11.06726827094474</v>
       </c>
       <c r="S4">
-        <v>11.60120985979195</v>
+        <v>12.24329322638146</v>
       </c>
       <c r="T4">
-        <v>0.2217438941655359</v>
+        <v>0.2195296345811051</v>
       </c>
       <c r="U4">
-        <v>0.9970078152311093</v>
+        <v>1.00299099393628</v>
       </c>
       <c r="V4">
-        <v>1.065397554070877</v>
+        <v>0.9867825902036287</v>
       </c>
       <c r="W4">
-        <v>11.60329838741389</v>
+        <v>11.66801595401862</v>
       </c>
       <c r="X4">
-        <v>0.5646766169154229</v>
+        <v>0.553030303030303</v>
       </c>
       <c r="Y4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Z4">
-        <v>76.15000000000001</v>
+        <v>75.25</v>
       </c>
       <c r="AA4">
-        <v>0.6277777777777778</v>
+        <v>0.5091954022988505</v>
       </c>
       <c r="AB4">
-        <v>0.4857859310167468</v>
+        <v>0.4875867848749801</v>
       </c>
       <c r="AC4">
-        <v>-0.3300000000000001</v>
+        <v>4.245</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.2855650450752738</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.1673476647603486</v>
       </c>
       <c r="AF4">
-        <v>0.4865730634360924</v>
+        <v>0.4942606702759253</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -885,88 +891,88 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>230.5</v>
+        <v>225.5</v>
       </c>
       <c r="F5">
-        <v>114.3513116236997</v>
+        <v>112.9149616368287</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>0.4847301951779563</v>
+        <v>0.5121870882740448</v>
       </c>
       <c r="K5">
-        <v>97.90226142017184</v>
+        <v>97.77088661551576</v>
       </c>
       <c r="L5">
-        <v>116.1303256445048</v>
+        <v>114.7586423699915</v>
       </c>
       <c r="M5">
-        <v>116.4183061962913</v>
+        <v>115.2360187553282</v>
       </c>
       <c r="N5">
-        <v>76.42901402080508</v>
+        <v>76.54703751065642</v>
       </c>
       <c r="O5">
-        <v>0.382421867933062</v>
+        <v>0.4176441815856777</v>
       </c>
       <c r="P5">
-        <v>0.5901792175486207</v>
+        <v>0.5775859974424553</v>
       </c>
       <c r="Q5">
-        <v>0.2938032564450475</v>
+        <v>0.2735002131287297</v>
       </c>
       <c r="R5">
-        <v>12.569855269109</v>
+        <v>12.48536871270247</v>
       </c>
       <c r="S5">
-        <v>12.20900045228403</v>
+        <v>12.53610400682012</v>
       </c>
       <c r="T5">
-        <v>0.2244795906829489</v>
+        <v>0.2136608589087809</v>
       </c>
       <c r="U5">
-        <v>0.9987014115606959</v>
+        <v>0.9861568701906432</v>
       </c>
       <c r="V5">
-        <v>0.9357113316933782</v>
+        <v>1.031404075660796</v>
       </c>
       <c r="W5">
-        <v>11.47363797512983</v>
+        <v>9.655854799659785</v>
       </c>
       <c r="X5">
-        <v>0.473767526006332</v>
+        <v>0.5035166240409207</v>
       </c>
       <c r="Y5">
-        <v>42.5</v>
+        <v>36.5</v>
       </c>
       <c r="Z5">
-        <v>76.25</v>
+        <v>75.25</v>
       </c>
       <c r="AA5">
-        <v>0.4852941176470588</v>
+        <v>0.5417620137299771</v>
       </c>
       <c r="AB5">
-        <v>0.5029450642138835</v>
+        <v>0.5022842464371763</v>
       </c>
       <c r="AC5">
-        <v>-4.695</v>
+        <v>4.95</v>
       </c>
       <c r="AD5">
-        <v>0.1412615710230504</v>
+        <v>0.1596861005467862</v>
       </c>
       <c r="AE5">
-        <v>0.1307834957158651</v>
+        <v>0.1226189746732026</v>
       </c>
       <c r="AF5">
-        <v>0.457843756037993</v>
+        <v>0.5100891362589994</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -977,88 +983,88 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>237.5</v>
+        <v>231.5</v>
       </c>
       <c r="F6">
-        <v>115.2424242424242</v>
+        <v>114.0607989464443</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>0.5875699626865671</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="K6">
-        <v>100.6174242424242</v>
+        <v>98.19494073748899</v>
       </c>
       <c r="L6">
-        <v>113.6886363636364</v>
+        <v>114.9314091308165</v>
       </c>
       <c r="M6">
-        <v>118.0416666666667</v>
+        <v>116.2337686567164</v>
       </c>
       <c r="N6">
-        <v>74.13712121212122</v>
+        <v>77.63278094820018</v>
       </c>
       <c r="O6">
-        <v>0.3527348484848485</v>
+        <v>0.4220735294117646</v>
       </c>
       <c r="P6">
-        <v>0.5662196969696969</v>
+        <v>0.5775081211589114</v>
       </c>
       <c r="Q6">
-        <v>0.2430909090909091</v>
+        <v>0.2687833625987709</v>
       </c>
       <c r="R6">
-        <v>11.9969696969697</v>
+        <v>12.66546312554873</v>
       </c>
       <c r="S6">
-        <v>12.88787878787879</v>
+        <v>11.09462247585601</v>
       </c>
       <c r="T6">
-        <v>0.2034469696969697</v>
+        <v>0.2069004609306409</v>
       </c>
       <c r="U6">
-        <v>1.006484054518989</v>
+        <v>0.9961641829383777</v>
       </c>
       <c r="V6">
-        <v>1.034023897491248</v>
+        <v>1.015156363027759</v>
       </c>
       <c r="W6">
-        <v>11.59518142333837</v>
+        <v>11.62927082437351</v>
       </c>
       <c r="X6">
-        <v>0.3636363636363636</v>
+        <v>0.4575285338015803</v>
       </c>
       <c r="Y6">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Z6">
-        <v>73.80000000000001</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.3851674641148325</v>
+        <v>0.4712918660287082</v>
       </c>
       <c r="AB6">
-        <v>0.5000213014461756</v>
+        <v>0.5036654602801898</v>
       </c>
       <c r="AC6">
-        <v>-3.94</v>
+        <v>-0.6200000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.02036293476560462</v>
+        <v>0.03328213792044232</v>
       </c>
       <c r="AE6">
-        <v>0.02138415404040404</v>
+        <v>0.03804381127450981</v>
       </c>
       <c r="AF6">
-        <v>0.4924064783506635</v>
+        <v>0.5234898583329538</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1069,88 +1075,180 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>225.5</v>
+        <v>236</v>
       </c>
       <c r="F7">
-        <v>116.0273266022827</v>
+        <v>115.7381474978051</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7">
-        <v>0.5149253731343284</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="K7">
-        <v>98.68252853380157</v>
+        <v>99.21947980684811</v>
       </c>
       <c r="L7">
-        <v>116.1953577699737</v>
+        <v>115.8508340649693</v>
       </c>
       <c r="M7">
-        <v>115.0210381913959</v>
+        <v>114.5007462686567</v>
       </c>
       <c r="N7">
-        <v>76.51334503950832</v>
+        <v>76.36245610184375</v>
       </c>
       <c r="O7">
-        <v>0.3730020851624233</v>
+        <v>0.4246378402107111</v>
       </c>
       <c r="P7">
-        <v>0.5765320456540826</v>
+        <v>0.5852208077260754</v>
       </c>
       <c r="Q7">
-        <v>0.2907157594381036</v>
+        <v>0.2337589991220369</v>
       </c>
       <c r="R7">
-        <v>11.25847234416155</v>
+        <v>12.74511633011413</v>
       </c>
       <c r="S7">
-        <v>10.60206321334504</v>
+        <v>12.2415825285338</v>
       </c>
       <c r="T7">
-        <v>0.2104190079016681</v>
+        <v>0.2076905728709394</v>
       </c>
       <c r="U7">
-        <v>1.013339096963168</v>
+        <v>1.010813515264673</v>
       </c>
       <c r="V7">
-        <v>1.005596910445933</v>
+        <v>1.072352460686536</v>
       </c>
       <c r="W7">
-        <v>10.87727887773243</v>
+        <v>11.55745725821847</v>
       </c>
       <c r="X7">
-        <v>0.5330333625987709</v>
+        <v>0.5334723441615452</v>
       </c>
       <c r="Y7">
-        <v>41.5</v>
+        <v>52.5</v>
       </c>
       <c r="Z7">
-        <v>75.40000000000001</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.5463659147869674</v>
+        <v>0.4495798319327731</v>
       </c>
       <c r="AB7">
-        <v>0.5096070111434863</v>
+        <v>0.4948403696302915</v>
       </c>
       <c r="AC7">
-        <v>-1.545</v>
+        <v>6.23</v>
       </c>
       <c r="AD7">
-        <v>0.1289987059742818</v>
+        <v>0.08958064490401504</v>
       </c>
       <c r="AE7">
-        <v>0.06672505527915974</v>
+        <v>0.07502117310062878</v>
       </c>
       <c r="AF7">
-        <v>0.4796797761337289</v>
+        <v>0.5141165355800927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>244.5</v>
+      </c>
+      <c r="F8">
+        <v>118.5463591135233</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>0.5001148105625717</v>
+      </c>
+      <c r="K8">
+        <v>99.93351424694708</v>
+      </c>
+      <c r="L8">
+        <v>117.6110244233379</v>
+      </c>
+      <c r="M8">
+        <v>114.3529963817278</v>
+      </c>
+      <c r="N8">
+        <v>77.68224785165086</v>
+      </c>
+      <c r="O8">
+        <v>0.4320945273631841</v>
+      </c>
+      <c r="P8">
+        <v>0.5967804161013115</v>
+      </c>
+      <c r="Q8">
+        <v>0.272714156490276</v>
+      </c>
+      <c r="R8">
+        <v>12.22062415196744</v>
+      </c>
+      <c r="S8">
+        <v>11.25609452736319</v>
+      </c>
+      <c r="T8">
+        <v>0.2013562302125735</v>
+      </c>
+      <c r="U8">
+        <v>1.035339380904134</v>
+      </c>
+      <c r="V8">
+        <v>1.042155439635926</v>
+      </c>
+      <c r="W8">
+        <v>13.08270057062465</v>
+      </c>
+      <c r="X8">
+        <v>0.6612392582541836</v>
+      </c>
+      <c r="Y8">
+        <v>44</v>
+      </c>
+      <c r="Z8">
+        <v>76</v>
+      </c>
+      <c r="AA8">
+        <v>0.6287625418060201</v>
+      </c>
+      <c r="AB8">
+        <v>0.4831006368827571</v>
+      </c>
+      <c r="AC8">
+        <v>-1.02</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0.4918769531364166</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -109,46 +109,40 @@
     <t>calc_over_prob</t>
   </si>
   <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>NewOrleans</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>LAClippers</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>Detroit</t>
   </si>
   <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>GoldenState</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Utah</t>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
   </si>
   <si>
     <t>Boston</t>
   </si>
   <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
+    <t>OklahomaCity</t>
   </si>
 </sst>
 </file>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,88 +609,88 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>226.5</v>
+        <v>225.5</v>
       </c>
       <c r="F2">
-        <v>113.5735294117647</v>
+        <v>112.1651995305164</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>0.5149253731343284</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="K2">
-        <v>99.55073529411763</v>
+        <v>98.04566705790299</v>
       </c>
       <c r="L2">
-        <v>113.4705882352941</v>
+        <v>113.9056631455399</v>
       </c>
       <c r="M2">
-        <v>118.2963235294118</v>
+        <v>115.7542057902973</v>
       </c>
       <c r="N2">
-        <v>73.59264705882353</v>
+        <v>76.88141627543038</v>
       </c>
       <c r="O2">
-        <v>0.4004999999999999</v>
+        <v>0.36016686228482</v>
       </c>
       <c r="P2">
-        <v>0.5714411764705882</v>
+        <v>0.5811090571205006</v>
       </c>
       <c r="Q2">
-        <v>0.284375</v>
+        <v>0.2807246674491393</v>
       </c>
       <c r="R2">
-        <v>12.47573529411765</v>
+        <v>12.59123630672926</v>
       </c>
       <c r="S2">
-        <v>12.27941176470589</v>
+        <v>11.60299295774648</v>
       </c>
       <c r="T2">
-        <v>0.2275845588235293</v>
+        <v>0.2137255966353677</v>
       </c>
       <c r="U2">
-        <v>0.9919085538145389</v>
+        <v>0.979608729524161</v>
       </c>
       <c r="V2">
-        <v>1.074257995036756</v>
+        <v>0.9807431626398754</v>
       </c>
       <c r="W2">
-        <v>11.7836500394311</v>
+        <v>10.48471679811085</v>
       </c>
       <c r="X2">
-        <v>0.3382352941176471</v>
+        <v>0.4267410015649452</v>
       </c>
       <c r="Y2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Z2">
-        <v>75.05000000000001</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3462732919254659</v>
+        <v>0.4883040935672515</v>
       </c>
       <c r="AB2">
-        <v>0.4923062650374564</v>
+        <v>0.4998633419594793</v>
       </c>
       <c r="AC2">
-        <v>-5.305</v>
+        <v>-5.45</v>
       </c>
       <c r="AD2">
-        <v>0.5731698060805751</v>
+        <v>0.1024090272268591</v>
       </c>
       <c r="AE2">
-        <v>0.4497074142156863</v>
+        <v>0.09658417421970092</v>
       </c>
       <c r="AF2">
-        <v>0.4960614951192897</v>
+        <v>0.4639018941231757</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -707,88 +701,88 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>244.5</v>
+        <v>236</v>
       </c>
       <c r="F3">
-        <v>116.3455882352941</v>
+        <v>114.1485719874804</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>0.5220588235294117</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="K3">
-        <v>100.2169117647059</v>
+        <v>99.36740023474178</v>
       </c>
       <c r="L3">
-        <v>115.4102941176471</v>
+        <v>114.0723200312989</v>
       </c>
       <c r="M3">
-        <v>115.5125</v>
+        <v>118.0094581377152</v>
       </c>
       <c r="N3">
-        <v>75.175</v>
+        <v>75.26235328638495</v>
       </c>
       <c r="O3">
-        <v>0.3585514705882353</v>
+        <v>0.3518038928012519</v>
       </c>
       <c r="P3">
-        <v>0.5865661764705885</v>
+        <v>0.5693385172143978</v>
       </c>
       <c r="Q3">
-        <v>0.2554705882352941</v>
+        <v>0.2686073943661972</v>
       </c>
       <c r="R3">
-        <v>12.09044117647059</v>
+        <v>11.74988262910798</v>
       </c>
       <c r="S3">
-        <v>12.55147058823529</v>
+        <v>11.8726917057903</v>
       </c>
       <c r="T3">
-        <v>0.2114779411764706</v>
+        <v>0.2165450899843505</v>
       </c>
       <c r="U3">
-        <v>1.016118674544053</v>
+        <v>0.9969307597159863</v>
       </c>
       <c r="V3">
-        <v>1.025677006274918</v>
+        <v>0.9574346620970108</v>
       </c>
       <c r="W3">
-        <v>10.88176881783746</v>
+        <v>11.35669312351145</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>0.3575899843505477</v>
       </c>
       <c r="Y3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Z3">
-        <v>76.25</v>
+        <v>75.5</v>
       </c>
       <c r="AA3">
-        <v>0.525</v>
+        <v>0.3821428571428572</v>
       </c>
       <c r="AB3">
-        <v>0.4997640803003665</v>
+        <v>0.5007783244838535</v>
       </c>
       <c r="AC3">
-        <v>2.04</v>
+        <v>-2.9</v>
       </c>
       <c r="AD3">
-        <v>0.07389385433594325</v>
+        <v>0.2868701557620145</v>
       </c>
       <c r="AE3">
-        <v>0.05870506535947714</v>
+        <v>0.2253176010150409</v>
       </c>
       <c r="AF3">
-        <v>0.4913680646396232</v>
+        <v>0.513206101967522</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -799,88 +793,88 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>224.5</v>
+        <v>218.5</v>
       </c>
       <c r="F4">
-        <v>114.8424688057041</v>
+        <v>112.7513988037816</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>0.4948694029850746</v>
+        <v>0.4680039138943248</v>
       </c>
       <c r="K4">
-        <v>98.06198752228164</v>
+        <v>96.25072351919738</v>
       </c>
       <c r="L4">
-        <v>116.329055258467</v>
+        <v>116.3805807447424</v>
       </c>
       <c r="M4">
-        <v>114.0671122994653</v>
+        <v>113.2076596565695</v>
       </c>
       <c r="N4">
-        <v>76.18863636363636</v>
+        <v>75.7050935751495</v>
       </c>
       <c r="O4">
-        <v>0.4255871212121212</v>
+        <v>0.3840830600038587</v>
       </c>
       <c r="P4">
-        <v>0.5814988859180037</v>
+        <v>0.5974148176731624</v>
       </c>
       <c r="Q4">
-        <v>0.2928224153297683</v>
+        <v>0.2640336677599847</v>
       </c>
       <c r="R4">
-        <v>11.06726827094474</v>
+        <v>11.91571483696701</v>
       </c>
       <c r="S4">
-        <v>12.24329322638146</v>
+        <v>12.66660235384912</v>
       </c>
       <c r="T4">
-        <v>0.2195296345811051</v>
+        <v>0.2107690526721976</v>
       </c>
       <c r="U4">
-        <v>1.00299099393628</v>
+        <v>0.9847283738321537</v>
       </c>
       <c r="V4">
-        <v>0.9867825902036287</v>
+        <v>0.9626442643961158</v>
       </c>
       <c r="W4">
-        <v>11.66801595401862</v>
+        <v>10.82799689195475</v>
       </c>
       <c r="X4">
-        <v>0.553030303030303</v>
+        <v>0.5828670654061354</v>
       </c>
       <c r="Y4">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="Z4">
-        <v>75.25</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.5091954022988505</v>
+        <v>0.4719251336898396</v>
       </c>
       <c r="AB4">
-        <v>0.4875867848749801</v>
+        <v>0.5015132535795598</v>
       </c>
       <c r="AC4">
-        <v>4.245</v>
+        <v>1.43</v>
       </c>
       <c r="AD4">
-        <v>0.2855650450752738</v>
+        <v>0.03986769961597369</v>
       </c>
       <c r="AE4">
-        <v>0.1673476647603486</v>
+        <v>0.03242224178403757</v>
       </c>
       <c r="AF4">
-        <v>0.4942606702759253</v>
+        <v>0.4779323265780384</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -891,88 +885,88 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>225.5</v>
+        <v>232.5</v>
       </c>
       <c r="F5">
-        <v>112.9149616368287</v>
+        <v>113.3591549295775</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>0.5121870882740448</v>
+        <v>0.5363339457032048</v>
       </c>
       <c r="K5">
-        <v>97.77088661551576</v>
+        <v>99.52394366197183</v>
       </c>
       <c r="L5">
-        <v>114.7586423699915</v>
+        <v>113.0718309859155</v>
       </c>
       <c r="M5">
-        <v>115.2360187553282</v>
+        <v>117.3830985915493</v>
       </c>
       <c r="N5">
-        <v>76.54703751065642</v>
+        <v>76.10140845070423</v>
       </c>
       <c r="O5">
-        <v>0.4176441815856777</v>
+        <v>0.346161971830986</v>
       </c>
       <c r="P5">
-        <v>0.5775859974424553</v>
+        <v>0.569549295774648</v>
       </c>
       <c r="Q5">
-        <v>0.2735002131287297</v>
+        <v>0.2578239436619718</v>
       </c>
       <c r="R5">
-        <v>12.48536871270247</v>
+        <v>12.72887323943662</v>
       </c>
       <c r="S5">
-        <v>12.53610400682012</v>
+        <v>12.2556338028169</v>
       </c>
       <c r="T5">
-        <v>0.2136608589087809</v>
+        <v>0.2052394366197183</v>
       </c>
       <c r="U5">
-        <v>0.9861568701906432</v>
+        <v>0.9900362875945631</v>
       </c>
       <c r="V5">
-        <v>1.031404075660796</v>
+        <v>1.045650279378181</v>
       </c>
       <c r="W5">
-        <v>9.655854799659785</v>
+        <v>10.75281481949624</v>
       </c>
       <c r="X5">
-        <v>0.5035166240409207</v>
+        <v>0.3732394366197183</v>
       </c>
       <c r="Y5">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="Z5">
-        <v>75.25</v>
+        <v>75.30000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.5417620137299771</v>
+        <v>0.4494949494949495</v>
       </c>
       <c r="AB5">
-        <v>0.5022842464371763</v>
+        <v>0.5008197623188704</v>
       </c>
       <c r="AC5">
-        <v>4.95</v>
+        <v>-0.41</v>
       </c>
       <c r="AD5">
-        <v>0.1596861005467862</v>
+        <v>0.2309774288349089</v>
       </c>
       <c r="AE5">
-        <v>0.1226189746732026</v>
+        <v>0.1797412949921753</v>
       </c>
       <c r="AF5">
-        <v>0.5100891362589994</v>
+        <v>0.512552038787907</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -983,88 +977,88 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>231.5</v>
+        <v>239.5</v>
       </c>
       <c r="F6">
-        <v>114.0607989464443</v>
+        <v>119.3405712050078</v>
       </c>
       <c r="G6">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>0.5151515151515151</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="K6">
-        <v>98.19494073748899</v>
+        <v>98.91913145539905</v>
       </c>
       <c r="L6">
-        <v>114.9314091308165</v>
+        <v>119.2578051643193</v>
       </c>
       <c r="M6">
-        <v>116.2337686567164</v>
+        <v>115.1836952269171</v>
       </c>
       <c r="N6">
-        <v>77.63278094820018</v>
+        <v>78.2709996087637</v>
       </c>
       <c r="O6">
-        <v>0.4220735294117646</v>
+        <v>0.4495860719874802</v>
       </c>
       <c r="P6">
-        <v>0.5775081211589114</v>
+        <v>0.6070291471048512</v>
       </c>
       <c r="Q6">
-        <v>0.2687833625987709</v>
+        <v>0.2723900625978091</v>
       </c>
       <c r="R6">
-        <v>12.66546312554873</v>
+        <v>11.76524843505477</v>
       </c>
       <c r="S6">
-        <v>11.09462247585601</v>
+        <v>11.37936228482003</v>
       </c>
       <c r="T6">
-        <v>0.2069004609306409</v>
+        <v>0.207889622456964</v>
       </c>
       <c r="U6">
-        <v>0.9961641829383777</v>
+        <v>1.042275731048103</v>
       </c>
       <c r="V6">
-        <v>1.015156363027759</v>
+        <v>0.9776736366503012</v>
       </c>
       <c r="W6">
-        <v>11.62927082437351</v>
+        <v>12.46603764290631</v>
       </c>
       <c r="X6">
-        <v>0.4575285338015803</v>
+        <v>0.6430946791862284</v>
       </c>
       <c r="Y6">
-        <v>39</v>
+        <v>44.5</v>
       </c>
       <c r="Z6">
-        <v>76.15000000000001</v>
+        <v>77.25</v>
       </c>
       <c r="AA6">
-        <v>0.4712918660287082</v>
+        <v>0.5727272727272728</v>
       </c>
       <c r="AB6">
-        <v>0.5036654602801898</v>
+        <v>0.4805047624224144</v>
       </c>
       <c r="AC6">
-        <v>-0.6200000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.03328213792044232</v>
+        <v>0.009573168958799755</v>
       </c>
       <c r="AE6">
-        <v>0.03804381127450981</v>
+        <v>0.01630063657407408</v>
       </c>
       <c r="AF6">
-        <v>0.5234898583329538</v>
+        <v>0.4725093050704769</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1075,180 +1069,88 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>236</v>
+        <v>238.5</v>
       </c>
       <c r="F7">
-        <v>115.7381474978051</v>
+        <v>115.3462441314554</v>
       </c>
       <c r="G7">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>0.5378787878787878</v>
+        <v>0.5179968701095461</v>
       </c>
       <c r="K7">
-        <v>99.21947980684811</v>
+        <v>98.86306729264476</v>
       </c>
       <c r="L7">
-        <v>115.8508340649693</v>
+        <v>115.5945618153365</v>
       </c>
       <c r="M7">
-        <v>114.5007462686567</v>
+        <v>114.7527875586855</v>
       </c>
       <c r="N7">
-        <v>76.36245610184375</v>
+        <v>75.04909037558686</v>
       </c>
       <c r="O7">
-        <v>0.4246378402107111</v>
+        <v>0.3771229460093897</v>
       </c>
       <c r="P7">
-        <v>0.5852208077260754</v>
+        <v>0.5790099765258215</v>
       </c>
       <c r="Q7">
-        <v>0.2337589991220369</v>
+        <v>0.2690244522691706</v>
       </c>
       <c r="R7">
-        <v>12.74511633011413</v>
+        <v>11.58657081377152</v>
       </c>
       <c r="S7">
-        <v>12.2415825285338</v>
+        <v>12.68953442879499</v>
       </c>
       <c r="T7">
-        <v>0.2076905728709394</v>
+        <v>0.2143623337245696</v>
       </c>
       <c r="U7">
-        <v>1.010813515264673</v>
+        <v>1.007390778440658</v>
       </c>
       <c r="V7">
-        <v>1.072352460686536</v>
+        <v>1.033706398810785</v>
       </c>
       <c r="W7">
-        <v>11.55745725821847</v>
+        <v>13.40429650336272</v>
       </c>
       <c r="X7">
-        <v>0.5334723441615452</v>
+        <v>0.5103677621283256</v>
       </c>
       <c r="Y7">
-        <v>52.5</v>
+        <v>38</v>
       </c>
       <c r="Z7">
-        <v>76.65000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.4495798319327731</v>
+        <v>0.3808823529411764</v>
       </c>
       <c r="AB7">
-        <v>0.4948403696302915</v>
+        <v>0.4880580593205012</v>
       </c>
       <c r="AC7">
-        <v>6.23</v>
+        <v>-3.905</v>
       </c>
       <c r="AD7">
-        <v>0.08958064490401504</v>
+        <v>0.06129130655821043</v>
       </c>
       <c r="AE7">
-        <v>0.07502117310062878</v>
+        <v>0.04027874228395063</v>
       </c>
       <c r="AF7">
-        <v>0.5141165355800927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2023</v>
-      </c>
-      <c r="D8">
-        <v>244.5</v>
-      </c>
-      <c r="F8">
-        <v>118.5463591135233</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8">
-        <v>0.5001148105625717</v>
-      </c>
-      <c r="K8">
-        <v>99.93351424694708</v>
-      </c>
-      <c r="L8">
-        <v>117.6110244233379</v>
-      </c>
-      <c r="M8">
-        <v>114.3529963817278</v>
-      </c>
-      <c r="N8">
-        <v>77.68224785165086</v>
-      </c>
-      <c r="O8">
-        <v>0.4320945273631841</v>
-      </c>
-      <c r="P8">
-        <v>0.5967804161013115</v>
-      </c>
-      <c r="Q8">
-        <v>0.272714156490276</v>
-      </c>
-      <c r="R8">
-        <v>12.22062415196744</v>
-      </c>
-      <c r="S8">
-        <v>11.25609452736319</v>
-      </c>
-      <c r="T8">
-        <v>0.2013562302125735</v>
-      </c>
-      <c r="U8">
-        <v>1.035339380904134</v>
-      </c>
-      <c r="V8">
-        <v>1.042155439635926</v>
-      </c>
-      <c r="W8">
-        <v>13.08270057062465</v>
-      </c>
-      <c r="X8">
-        <v>0.6612392582541836</v>
-      </c>
-      <c r="Y8">
-        <v>44</v>
-      </c>
-      <c r="Z8">
-        <v>76</v>
-      </c>
-      <c r="AA8">
-        <v>0.6287625418060201</v>
-      </c>
-      <c r="AB8">
-        <v>0.4831006368827571</v>
-      </c>
-      <c r="AC8">
-        <v>-1.02</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.4918769531364166</v>
+        <v>0.5258694122900343</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -106,43 +106,16 @@
     <t>injury_mins</t>
   </si>
   <si>
-    <t>calc_over_prob</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>NewOrleans</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>LAClippers</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>SanAntonio</t>
+    <t>LALakers</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Denver</t>
   </si>
   <si>
     <t>Boston</t>
-  </si>
-  <si>
-    <t>OklahomaCity</t>
   </si>
 </sst>
 </file>
@@ -500,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,11 +570,8 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -609,91 +579,88 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>225.5</v>
+        <v>223</v>
       </c>
       <c r="F2">
-        <v>112.1651995305164</v>
+        <v>116.4817073170732</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>0.4891304347826087</v>
+        <v>0.5022483000658039</v>
       </c>
       <c r="K2">
-        <v>98.04566705790299</v>
+        <v>99.13048780487802</v>
       </c>
       <c r="L2">
-        <v>113.9056631455399</v>
+        <v>116.8475609756098</v>
       </c>
       <c r="M2">
-        <v>115.7542057902973</v>
+        <v>114.9012195121951</v>
       </c>
       <c r="N2">
-        <v>76.88141627543038</v>
+        <v>76.5219512195122</v>
       </c>
       <c r="O2">
-        <v>0.36016686228482</v>
+        <v>0.3556463414634147</v>
       </c>
       <c r="P2">
-        <v>0.5811090571205006</v>
+        <v>0.592920731707317</v>
       </c>
       <c r="Q2">
-        <v>0.2807246674491393</v>
+        <v>0.2814207317073171</v>
       </c>
       <c r="R2">
-        <v>12.59123630672926</v>
+        <v>12.14695121951219</v>
       </c>
       <c r="S2">
-        <v>11.60299295774648</v>
+        <v>11.09268292682927</v>
       </c>
       <c r="T2">
-        <v>0.2137255966353677</v>
+        <v>0.2021890243902439</v>
       </c>
       <c r="U2">
-        <v>0.979608729524161</v>
+        <v>1.015533629617029</v>
       </c>
       <c r="V2">
-        <v>0.9807431626398754</v>
+        <v>1.008531920111627</v>
       </c>
       <c r="W2">
-        <v>10.48471679811085</v>
+        <v>10.70028761859465</v>
       </c>
       <c r="X2">
-        <v>0.4267410015649452</v>
+        <v>0.5853658536585367</v>
       </c>
       <c r="Y2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="Z2">
-        <v>75.34999999999999</v>
+        <v>75.05</v>
       </c>
       <c r="AA2">
-        <v>0.4883040935672515</v>
+        <v>0.5691666666666667</v>
       </c>
       <c r="AB2">
-        <v>0.4998633419594793</v>
+        <v>0.4970461859683442</v>
       </c>
       <c r="AC2">
-        <v>-5.45</v>
+        <v>-0.46</v>
       </c>
       <c r="AD2">
-        <v>0.1024090272268591</v>
+        <v>0.004989180091368116</v>
       </c>
       <c r="AE2">
-        <v>0.09658417421970092</v>
-      </c>
-      <c r="AF2">
-        <v>0.4639018941231757</v>
+        <v>0.006774691358024691</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,456 +668,85 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="F3">
-        <v>114.1485719874804</v>
+        <v>113.7073170731707</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>0.528169014084507</v>
+        <v>0.5365708084644601</v>
       </c>
       <c r="K3">
-        <v>99.36740023474178</v>
+        <v>96.66097560975608</v>
       </c>
       <c r="L3">
-        <v>114.0723200312989</v>
+        <v>116.484756097561</v>
       </c>
       <c r="M3">
-        <v>118.0094581377152</v>
+        <v>113.340243902439</v>
       </c>
       <c r="N3">
-        <v>75.26235328638495</v>
+        <v>78.28536585365856</v>
       </c>
       <c r="O3">
-        <v>0.3518038928012519</v>
+        <v>0.4444817073170729</v>
       </c>
       <c r="P3">
-        <v>0.5693385172143978</v>
+        <v>0.5884329268292685</v>
       </c>
       <c r="Q3">
-        <v>0.2686073943661972</v>
+        <v>0.2600426829268293</v>
       </c>
       <c r="R3">
-        <v>11.74988262910798</v>
+        <v>11.63414634146342</v>
       </c>
       <c r="S3">
-        <v>11.8726917057903</v>
+        <v>12.33475609756098</v>
       </c>
       <c r="T3">
-        <v>0.2165450899843505</v>
+        <v>0.2029329268292683</v>
       </c>
       <c r="U3">
-        <v>0.9969307597159863</v>
+        <v>0.991345397324941</v>
       </c>
       <c r="V3">
-        <v>0.9574346620970108</v>
+        <v>1.025715233975254</v>
       </c>
       <c r="W3">
-        <v>11.35669312351145</v>
+        <v>11.26723778620105</v>
       </c>
       <c r="X3">
-        <v>0.3575899843505477</v>
+        <v>0.6158536585365854</v>
       </c>
       <c r="Y3">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Z3">
-        <v>75.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.3821428571428572</v>
+        <v>0.578525641025641</v>
       </c>
       <c r="AB3">
-        <v>0.5007783244838535</v>
+        <v>0.4934737413325708</v>
       </c>
       <c r="AC3">
-        <v>-2.9</v>
+        <v>5.625</v>
       </c>
       <c r="AD3">
-        <v>0.2868701557620145</v>
+        <v>0.06760958756208162</v>
       </c>
       <c r="AE3">
-        <v>0.2253176010150409</v>
-      </c>
-      <c r="AF3">
-        <v>0.513206101967522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2023</v>
-      </c>
-      <c r="D4">
-        <v>218.5</v>
-      </c>
-      <c r="F4">
-        <v>112.7513988037816</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4">
-        <v>0.4680039138943248</v>
-      </c>
-      <c r="K4">
-        <v>96.25072351919738</v>
-      </c>
-      <c r="L4">
-        <v>116.3805807447424</v>
-      </c>
-      <c r="M4">
-        <v>113.2076596565695</v>
-      </c>
-      <c r="N4">
-        <v>75.7050935751495</v>
-      </c>
-      <c r="O4">
-        <v>0.3840830600038587</v>
-      </c>
-      <c r="P4">
-        <v>0.5974148176731624</v>
-      </c>
-      <c r="Q4">
-        <v>0.2640336677599847</v>
-      </c>
-      <c r="R4">
-        <v>11.91571483696701</v>
-      </c>
-      <c r="S4">
-        <v>12.66660235384912</v>
-      </c>
-      <c r="T4">
-        <v>0.2107690526721976</v>
-      </c>
-      <c r="U4">
-        <v>0.9847283738321537</v>
-      </c>
-      <c r="V4">
-        <v>0.9626442643961158</v>
-      </c>
-      <c r="W4">
-        <v>10.82799689195475</v>
-      </c>
-      <c r="X4">
-        <v>0.5828670654061354</v>
-      </c>
-      <c r="Y4">
-        <v>48.5</v>
-      </c>
-      <c r="Z4">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>0.4719251336898396</v>
-      </c>
-      <c r="AB4">
-        <v>0.5015132535795598</v>
-      </c>
-      <c r="AC4">
-        <v>1.43</v>
-      </c>
-      <c r="AD4">
-        <v>0.03986769961597369</v>
-      </c>
-      <c r="AE4">
-        <v>0.03242224178403757</v>
-      </c>
-      <c r="AF4">
-        <v>0.4779323265780384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2023</v>
-      </c>
-      <c r="D5">
-        <v>232.5</v>
-      </c>
-      <c r="F5">
-        <v>113.3591549295775</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>0.5363339457032048</v>
-      </c>
-      <c r="K5">
-        <v>99.52394366197183</v>
-      </c>
-      <c r="L5">
-        <v>113.0718309859155</v>
-      </c>
-      <c r="M5">
-        <v>117.3830985915493</v>
-      </c>
-      <c r="N5">
-        <v>76.10140845070423</v>
-      </c>
-      <c r="O5">
-        <v>0.346161971830986</v>
-      </c>
-      <c r="P5">
-        <v>0.569549295774648</v>
-      </c>
-      <c r="Q5">
-        <v>0.2578239436619718</v>
-      </c>
-      <c r="R5">
-        <v>12.72887323943662</v>
-      </c>
-      <c r="S5">
-        <v>12.2556338028169</v>
-      </c>
-      <c r="T5">
-        <v>0.2052394366197183</v>
-      </c>
-      <c r="U5">
-        <v>0.9900362875945631</v>
-      </c>
-      <c r="V5">
-        <v>1.045650279378181</v>
-      </c>
-      <c r="W5">
-        <v>10.75281481949624</v>
-      </c>
-      <c r="X5">
-        <v>0.3732394366197183</v>
-      </c>
-      <c r="Y5">
-        <v>34</v>
-      </c>
-      <c r="Z5">
-        <v>75.30000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>0.4494949494949495</v>
-      </c>
-      <c r="AB5">
-        <v>0.5008197623188704</v>
-      </c>
-      <c r="AC5">
-        <v>-0.41</v>
-      </c>
-      <c r="AD5">
-        <v>0.2309774288349089</v>
-      </c>
-      <c r="AE5">
-        <v>0.1797412949921753</v>
-      </c>
-      <c r="AF5">
-        <v>0.512552038787907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2023</v>
-      </c>
-      <c r="D6">
-        <v>239.5</v>
-      </c>
-      <c r="F6">
-        <v>119.3405712050078</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="K6">
-        <v>98.91913145539905</v>
-      </c>
-      <c r="L6">
-        <v>119.2578051643193</v>
-      </c>
-      <c r="M6">
-        <v>115.1836952269171</v>
-      </c>
-      <c r="N6">
-        <v>78.2709996087637</v>
-      </c>
-      <c r="O6">
-        <v>0.4495860719874802</v>
-      </c>
-      <c r="P6">
-        <v>0.6070291471048512</v>
-      </c>
-      <c r="Q6">
-        <v>0.2723900625978091</v>
-      </c>
-      <c r="R6">
-        <v>11.76524843505477</v>
-      </c>
-      <c r="S6">
-        <v>11.37936228482003</v>
-      </c>
-      <c r="T6">
-        <v>0.207889622456964</v>
-      </c>
-      <c r="U6">
-        <v>1.042275731048103</v>
-      </c>
-      <c r="V6">
-        <v>0.9776736366503012</v>
-      </c>
-      <c r="W6">
-        <v>12.46603764290631</v>
-      </c>
-      <c r="X6">
-        <v>0.6430946791862284</v>
-      </c>
-      <c r="Y6">
-        <v>44.5</v>
-      </c>
-      <c r="Z6">
-        <v>77.25</v>
-      </c>
-      <c r="AA6">
-        <v>0.5727272727272728</v>
-      </c>
-      <c r="AB6">
-        <v>0.4805047624224144</v>
-      </c>
-      <c r="AC6">
-        <v>0.8799999999999999</v>
-      </c>
-      <c r="AD6">
-        <v>0.009573168958799755</v>
-      </c>
-      <c r="AE6">
-        <v>0.01630063657407408</v>
-      </c>
-      <c r="AF6">
-        <v>0.4725093050704769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2023</v>
-      </c>
-      <c r="D7">
-        <v>238.5</v>
-      </c>
-      <c r="F7">
-        <v>115.3462441314554</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7">
-        <v>0.5179968701095461</v>
-      </c>
-      <c r="K7">
-        <v>98.86306729264476</v>
-      </c>
-      <c r="L7">
-        <v>115.5945618153365</v>
-      </c>
-      <c r="M7">
-        <v>114.7527875586855</v>
-      </c>
-      <c r="N7">
-        <v>75.04909037558686</v>
-      </c>
-      <c r="O7">
-        <v>0.3771229460093897</v>
-      </c>
-      <c r="P7">
-        <v>0.5790099765258215</v>
-      </c>
-      <c r="Q7">
-        <v>0.2690244522691706</v>
-      </c>
-      <c r="R7">
-        <v>11.58657081377152</v>
-      </c>
-      <c r="S7">
-        <v>12.68953442879499</v>
-      </c>
-      <c r="T7">
-        <v>0.2143623337245696</v>
-      </c>
-      <c r="U7">
-        <v>1.007390778440658</v>
-      </c>
-      <c r="V7">
-        <v>1.033706398810785</v>
-      </c>
-      <c r="W7">
-        <v>13.40429650336272</v>
-      </c>
-      <c r="X7">
-        <v>0.5103677621283256</v>
-      </c>
-      <c r="Y7">
-        <v>38</v>
-      </c>
-      <c r="Z7">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>0.3808823529411764</v>
-      </c>
-      <c r="AB7">
-        <v>0.4880580593205012</v>
-      </c>
-      <c r="AC7">
-        <v>-3.905</v>
-      </c>
-      <c r="AD7">
-        <v>0.06129130655821043</v>
-      </c>
-      <c r="AE7">
-        <v>0.04027874228395063</v>
-      </c>
-      <c r="AF7">
-        <v>0.5258694122900343</v>
+        <v>0.05936907181571816</v>
       </c>
     </row>
   </sheetData>

--- a/current_games_total.xlsx
+++ b/current_games_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>year</t>
   </si>
@@ -106,16 +106,10 @@
     <t>injury_mins</t>
   </si>
   <si>
-    <t>LALakers</t>
+    <t>Denver</t>
   </si>
   <si>
     <t>Miami</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Boston</t>
   </si>
 </sst>
 </file>
@@ -473,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,173 +573,84 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F2">
-        <v>116.4817073170732</v>
+        <v>112.6341463414634</v>
       </c>
       <c r="G2">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>0.5022483000658039</v>
+        <v>0.4944852941176471</v>
       </c>
       <c r="K2">
-        <v>99.13048780487802</v>
+        <v>96.50609756097558</v>
       </c>
       <c r="L2">
-        <v>116.8475609756098</v>
+        <v>116.1865853658537</v>
       </c>
       <c r="M2">
-        <v>114.9012195121951</v>
+        <v>114.7262195121951</v>
       </c>
       <c r="N2">
-        <v>76.5219512195122</v>
+        <v>77.20792682926832</v>
       </c>
       <c r="O2">
-        <v>0.3556463414634147</v>
+        <v>0.3850060975609756</v>
       </c>
       <c r="P2">
-        <v>0.592920731707317</v>
+        <v>0.5888963414634146</v>
       </c>
       <c r="Q2">
-        <v>0.2814207317073171</v>
+        <v>0.2673048780487804</v>
       </c>
       <c r="R2">
-        <v>12.14695121951219</v>
+        <v>12.17134146341463</v>
       </c>
       <c r="S2">
-        <v>11.09268292682927</v>
+        <v>12.81158536585366</v>
       </c>
       <c r="T2">
-        <v>0.2021890243902439</v>
+        <v>0.2072560975609756</v>
       </c>
       <c r="U2">
-        <v>1.015533629617029</v>
+        <v>0.9819890701086609</v>
       </c>
       <c r="V2">
-        <v>1.008531920111627</v>
+        <v>1.034568950601022</v>
       </c>
       <c r="W2">
-        <v>10.70028761859465</v>
+        <v>10.87395853408644</v>
       </c>
       <c r="X2">
-        <v>0.5853658536585367</v>
+        <v>0.5914634146341464</v>
       </c>
       <c r="Y2">
-        <v>48</v>
+        <v>50.5</v>
       </c>
       <c r="Z2">
-        <v>75.05</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.5691666666666667</v>
+        <v>0.6476923076923078</v>
       </c>
       <c r="AB2">
-        <v>0.4970461859683442</v>
+        <v>0.4978751742227263</v>
       </c>
       <c r="AC2">
-        <v>-0.46</v>
+        <v>3.195</v>
       </c>
       <c r="AD2">
-        <v>0.004989180091368116</v>
+        <v>0.06760958756208162</v>
       </c>
       <c r="AE2">
-        <v>0.006774691358024691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-      <c r="D3">
-        <v>214</v>
-      </c>
-      <c r="F3">
-        <v>113.7073170731707</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3">
-        <v>0.5365708084644601</v>
-      </c>
-      <c r="K3">
-        <v>96.66097560975608</v>
-      </c>
-      <c r="L3">
-        <v>116.484756097561</v>
-      </c>
-      <c r="M3">
-        <v>113.340243902439</v>
-      </c>
-      <c r="N3">
-        <v>78.28536585365856</v>
-      </c>
-      <c r="O3">
-        <v>0.4444817073170729</v>
-      </c>
-      <c r="P3">
-        <v>0.5884329268292685</v>
-      </c>
-      <c r="Q3">
-        <v>0.2600426829268293</v>
-      </c>
-      <c r="R3">
-        <v>11.63414634146342</v>
-      </c>
-      <c r="S3">
-        <v>12.33475609756098</v>
-      </c>
-      <c r="T3">
-        <v>0.2029329268292683</v>
-      </c>
-      <c r="U3">
-        <v>0.991345397324941</v>
-      </c>
-      <c r="V3">
-        <v>1.025715233975254</v>
-      </c>
-      <c r="W3">
-        <v>11.26723778620105</v>
-      </c>
-      <c r="X3">
-        <v>0.6158536585365854</v>
-      </c>
-      <c r="Y3">
-        <v>52</v>
-      </c>
-      <c r="Z3">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="AA3">
-        <v>0.578525641025641</v>
-      </c>
-      <c r="AB3">
-        <v>0.4934737413325708</v>
-      </c>
-      <c r="AC3">
-        <v>5.625</v>
-      </c>
-      <c r="AD3">
-        <v>0.06760958756208162</v>
-      </c>
-      <c r="AE3">
         <v>0.05936907181571816</v>
       </c>
     </row>
